--- a/affs_match.xlsx
+++ b/affs_match.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C320"/>
+  <dimension ref="A1:C336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,51 +453,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Key Laboratory of Special Functional and Smart Polymer Materials of Ministry of Industry and Information Technology, School of Chemistry and Chemical Engineering, Northwestern Polytechnical University, Xi’an, Shaanxi 710072, China</t>
+          <t>College of Bioresources Chemical and Materials Engineering, National Demonstration Center for Experimental Light Chemistry Engineering Education, Shaanxi University of Science &amp; Technology, Xi’an 710021, China</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['northwestern polytechnical universi']</t>
+          <t>['shaanxi universi science technology']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['https://ror.org/01y0j0j86']</t>
+          <t>['https://ror.org/034t3zs45']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>College of Bioresources Chemical and Materials Engineering, National Demonstration Center for Experimental Light Chemistry Engineering Education, Shaanxi University of Science &amp; Technology, Xi’an 710021, China</t>
+          <t>Key Laboratory of Special Functional and Smart Polymer Materials of Ministry of Industry and Information Technology, School of Chemistry and Chemical Engineering, Northwestern Polytechnical University, Xi’an, Shaanxi 710072, China</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['shaanxi universi science technology']</t>
+          <t>['northwestern polytechnical universi']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['https://ror.org/034t3zs45']</t>
+          <t>['https://ror.org/01y0j0j86']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>College of Physics and Optoelectronic Engineering, Shenzhen University, Shenzhen518055, China</t>
+          <t>School of Mechanical Engineering and Automation, Harbin Institute of Technology, Shenzhen518055, China</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['shenzhen universi']</t>
+          <t>['harbin institute technology']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['https://ror.org/01vy4gh70']</t>
+          <t>['https://ror.org/01yqg2h08']</t>
         </is>
       </c>
     </row>
@@ -521,17 +521,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>School of Mechanical Engineering and Automation, Harbin Institute of Technology, Shenzhen518055, China</t>
+          <t>College of Physics and Optoelectronic Engineering, Shenzhen University, Shenzhen518055, China</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['harbin institute technology']</t>
+          <t>['shenzhen universi']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['https://ror.org/01yqg2h08']</t>
+          <t>['https://ror.org/01vy4gh70']</t>
         </is>
       </c>
     </row>
@@ -640,1368 +640,1368 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>‡Immunology Service, Clinical Center, National Institutes of Health, Bethesda, MD 20892</t>
+          <t>*Arthritis and Rheumatism Branch, National Institute of Arthritis and Musculoskeletal and Skin Diseases,</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['national institutes health']</t>
+          <t>['national institute arthritis musculoskeletal skin diseases']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['https://ror.org/01cwqze88']</t>
+          <t>['https://ror.org/006zn3t30']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>*Arthritis and Rheumatism Branch, National Institute of Arthritis and Musculoskeletal and Skin Diseases,</t>
+          <t>‡Immunology Service, Clinical Center, National Institutes of Health, Bethesda, MD 20892</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['national institute arthritis musculoskeletal skin diseases']</t>
+          <t>['national institutes health']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['https://ror.org/006zn3t30']</t>
+          <t>['https://ror.org/01cwqze88']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>School of Nursing, Anhui Medical University</t>
+          <t>ISEG Lisbon School of Economics and Management Universidade de Lisboa  Lisbon Portugal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['anhui medical universi']</t>
+          <t>['universi economics management']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['https://ror.org/03xb04968']</t>
+          <t>['https://ror.org/0397v9r66']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>USDA, ARS, Eastern Regional Research Center, Wyndmoor, PA, USA</t>
+          <t>School of Nursing, Anhui Medical University</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['eastern regional research center']</t>
+          <t>['anhui medical universi']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['https://ror.org/052v5pn20']</t>
+          <t>['https://ror.org/03xb04968']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Department of Food Technology, Faculty of Science, Chulalongkorn University, Bangkok, Thailand</t>
+          <t>USDA, ARS, Eastern Regional Research Center, Wyndmoor, PA, USA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['chulalongkorn universi']</t>
+          <t>['eastern regional research center']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['https://ror.org/028wp3y58']</t>
+          <t>['https://ror.org/052v5pn20']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Presidency University,Dept. of Computer Science and Engineering,Bangalore,India</t>
+          <t>Department of Food Technology, Faculty of Science, Chulalongkorn University, Bangkok, Thailand</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['presidency universi']</t>
+          <t>['chulalongkorn universi']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['https://ror.org/04xgbph11']</t>
+          <t>['https://ror.org/028wp3y58']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Department of Chemistry, Texas A&amp;M University, P.O. Box 30012, College Station, Texas 77842-3012</t>
+          <t>Presidency University,Dept. of Computer Science and Engineering,Bangalore,India</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['texas am universi']</t>
+          <t>['presidency universi']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['https://ror.org/01f5ytq51']</t>
+          <t>['https://ror.org/04xgbph11']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Marmara University, Faculty of Health Sciences, Division of Physiotherapy and Rehabilitation, Department of Cardiopulmonary Physiotherapy Rehabilitation, Istanbul, Turkey.</t>
+          <t>Department of Chemistry, Texas A&amp;M University, P.O. Box 30012, College Station, Texas 77842-3012</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['marmara universi']</t>
+          <t>['texas am universi']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['https://ror.org/02kswqa67']</t>
+          <t>['https://ror.org/01f5ytq51']</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Division of Forensic Medicine, Graduate School of Medicine, Tottori University, Yonago, Japan</t>
+          <t>Bezmialem Vakif University, Faculty of Health Sciences, Division of Physiotherapy and Rehabilitation, Department of Cardiopulmonary Physiotherapy and Rehabilitation, Istanbul, Turkey.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['tottori universi']</t>
+          <t>['bezmialem vakif universi']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['https://ror.org/024yc3q36']</t>
+          <t>['https://ror.org/04z60tq39']</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Department of Anatomy, Graduate School of Medicine, Tottori University, Yonago, Japan</t>
+          <t>Marmara University, Faculty of Health Sciences, Division of Physiotherapy and Rehabilitation, Department of Cardiopulmonary Physiotherapy Rehabilitation, Istanbul, Turkey.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['tottori universi']</t>
+          <t>['marmara universi']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['https://ror.org/024yc3q36']</t>
+          <t>['https://ror.org/02kswqa67']</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Information Science Department, Georgian College, Barrie, ON, Canada</t>
+          <t>Bezmialem Vakif University, Faculty of Health Sciences, Division of Physiotherapy and Rehabilitation, Istanbul, Turkey.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['georgian college']</t>
+          <t>['bezmialem vakif universi']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['https://ror.org/04s2jm085']</t>
+          <t>['https://ror.org/04z60tq39']</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ted Rogers School of Information Technology Management (TRSITM) Ted Rogers School of Management, Toronto Metropolitan University, Toronto, ON, Canada</t>
+          <t>Department of Anatomy, Graduate School of Medicine, Tottori University, Yonago, Japan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['toronto metropolitan universi']</t>
+          <t>['tottori universi']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['https://ror.org/05g13zd79']</t>
+          <t>['https://ror.org/024yc3q36']</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>State Key Laboratory of Fine Chemicals, Key Laboratory of Industrial Ecology and Environmental Engineering (MOE), School of Environmental Science and Technology, Dalian University of Technology, Dalian 116024, P. R. China</t>
+          <t>Division of Forensic Medicine, Graduate School of Medicine, Tottori University, Yonago, Japan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['dalian universi technology']</t>
+          <t>['tottori universi']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['https://ror.org/023hj5876']</t>
+          <t>['https://ror.org/024yc3q36']</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Department of Chemical Engineering, Curtin University, GPO Box U1987, Perth, Western Australia 6845, Australia</t>
+          <t>Information Science Department, Georgian College, Barrie, ON, Canada</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['curtin universi']</t>
+          <t>['georgian college']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['https://ror.org/02n415q13']</t>
+          <t>['https://ror.org/04s2jm085']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Obstetrical Perinatal and Pediatric Epidemiology Research Team Institute of Health and Medical Research Centre of Research in Epidemiology and Statistics Université Paris Cité  Paris France</t>
+          <t>Ted Rogers School of Information Technology Management (TRSITM) Ted Rogers School of Management, Toronto Metropolitan University, Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['universi paris cite']</t>
+          <t>['toronto metropolitan universi']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['https://ror.org/05f82e368']</t>
+          <t>['https://ror.org/05g13zd79']</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Laboratory of Clinical Investigation, National Institute of Allergy and Infectious Diseases, National Institutes of Health, Bethesda, Maryland</t>
+          <t>Department of Chemical Engineering, Curtin University, GPO Box U1987, Perth, Western Australia 6845, Australia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
+          <t>['curtin universi']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['https://ror.org/043z4tv69', 'https://ror.org/01cwqze88']</t>
+          <t>['https://ror.org/02n415q13']</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>University of Porto</t>
+          <t>State Key Laboratory of Fine Chemicals, Key Laboratory of Industrial Ecology and Environmental Engineering (MOE), School of Environmental Science and Technology, Dalian University of Technology, Dalian 116024, P. R. China</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['universi porto']</t>
+          <t>['dalian universi technology']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['https://ror.org/043pwc612']</t>
+          <t>['https://ror.org/023hj5876']</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Centre de Recherches Politiques de Sciences Po, Institut d’études politiques de Paris Paris France</t>
+          <t>Obstetrical Perinatal and Pediatric Epidemiology Research Team Institute of Health and Medical Research Centre of Research in Epidemiology and Statistics Université Paris Cité  Paris France</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['institut detudes politiques paris', 'centre recherches politiques sciences po']</t>
+          <t>['universi paris cite']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['https://ror.org/05fe7ax82', 'https://ror.org/0266y7j75']</t>
+          <t>['https://ror.org/05f82e368']</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PhD Student, Department of Political Science, The University of Chicago https://dx.doi.org/2462 Chicago USA</t>
+          <t>Laboratory of Clinical Investigation, National Institute of Allergy and Infectious Diseases, National Institutes of Health, Bethesda, Maryland</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['universi chicago']</t>
+          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['https://ror.org/024mw5h28']</t>
+          <t>['https://ror.org/01cwqze88', 'https://ror.org/043z4tv69']</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Department of Otolaryngology–Head and Neck Surgery, University of California San Diego School of Medicine, La Jolla</t>
+          <t>University of Porto</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['universi california san diego']</t>
+          <t>['universi porto']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['https://ror.org/0168r3w48']</t>
+          <t>['https://ror.org/043pwc612']</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Department of Family and Community Medicine, University of Toronto, Toronto, ON, Canada</t>
+          <t>PhD Student, Department of Political Science, The University of Chicago https://dx.doi.org/2462 Chicago USA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['universi toronto']</t>
+          <t>['universi chicago']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['https://ror.org/03dbr7087']</t>
+          <t>['https://ror.org/024mw5h28']</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>College of Science, University of Shanghai for Science and Technology,Shanghai,China</t>
+          <t>Centre de Recherches Politiques de Sciences Po, Institut d’études politiques de Paris Paris France</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['universi shanghai science technology']</t>
+          <t>['institut detudes politiques paris', 'centre recherches politiques sciences po']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['https://ror.org/00ay9v204']</t>
+          <t>['https://ror.org/05fe7ax82', 'https://ror.org/0266y7j75']</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CONICET, Universidad Nacional de Avellaneda, Avellaneda, Argentina</t>
+          <t>Department of Otolaryngology–Head and Neck Surgery, University of California San Diego School of Medicine, La Jolla</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['universi nacional avellaneda']</t>
+          <t>['universi california san diego']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['https://ror.org/05f05cy37']</t>
+          <t>['https://ror.org/0168r3w48']</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Department of Medical Microbiology and Immunology, University of Ulm, FRG.</t>
+          <t>Second Mile Club, Kensington Health, Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['universi ulm']</t>
+          <t>['kensington health']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['https://ror.org/032000t02']</t>
+          <t>['https://ror.org/02qcscp23']</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>National University of Sciences &amp;#x0026; Technology,CEME,Department of Engineering Management,Rawalpindi,Pakistan</t>
+          <t>Department of Family and Community Medicine, University of Toronto, Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['national universi sciences technology']</t>
+          <t>['universi toronto']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['https://ror.org/03w2j5y17']</t>
+          <t>['https://ror.org/03dbr7087']</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>From the Departments of Physiology (M.A.W.B., G.J.T., R.S.R., M.G.A.o.E.) and Biophysics (D.W.S.), CARIM, Maastricht University, Maastricht, the Netherlands. Dr Broeders is now at the Department of Internal Medicine, Rijnland Hospital, Leiderdorp, the Netherlands, and Dr Tangelder is now at the Laboratory for Physiology, ICAR-VU, Vrije Universiteit Medical Center, Amsterdam, the Netherlands.</t>
+          <t>College of Science, University of Shanghai for Science and Technology,Shanghai,China</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['maastricht universi', 'vrije universi medical center']</t>
+          <t>['universi shanghai science technology']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['https://ror.org/00q6h8f30', 'https://ror.org/02jz4aj89']</t>
+          <t>['https://ror.org/00ay9v204']</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C.N.R., Istituto di Chimica dei Composti OrganoMetallici-ICCOM, Sezione di Bari, Dipartimento Farmaco-Chimico, Università di Bari, Via E.Orabona 4, I-70126 Bari, Italy</t>
+          <t>CONICET, Universidad Nacional de Avellaneda, Avellaneda, Argentina</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['universi bari']</t>
+          <t>['universi nacional avellaneda']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['https://ror.org/027ynra39']</t>
+          <t>['https://ror.org/05f05cy37']</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Department of Medicine III University of Heidelberg Heidelberg Germany</t>
+          <t>Department of Medical Microbiology and Immunology, University of Ulm, FRG.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['heidelberg universi']</t>
+          <t>['universi ulm']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['https://ror.org/038t36y30']</t>
+          <t>['https://ror.org/032000t02']</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Department of Infection, Immunity and Cardiovascular Disease University of Sheffield Sheffield United Kingdom</t>
+          <t>National University of Sciences &amp;#x0026; Technology,CEME,Department of Engineering Management,Rawalpindi,Pakistan</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['universi sheffield']</t>
+          <t>['national universi sciences technology']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['https://ror.org/05krs5044']</t>
+          <t>['https://ror.org/03w2j5y17']</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Department of Cardiology, Northwest Clinics Alkmaar, and Radboud University Medical Center Nijmegen The Netherlands</t>
+          <t>From the Departments of Physiology (M.A.W.B., G.J.T., R.S.R., M.G.A.o.E.) and Biophysics (D.W.S.), CARIM, Maastricht University, Maastricht, the Netherlands. Dr Broeders is now at the Department of Internal Medicine, Rijnland Hospital, Leiderdorp, the Netherlands, and Dr Tangelder is now at the Laboratory for Physiology, ICAR-VU, Vrije Universiteit Medical Center, Amsterdam, the Netherlands.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['universi medical center']</t>
+          <t>['maastricht universi', 'vrije universi medical center']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['https://ror.org/013v7fk41']</t>
+          <t>['https://ror.org/02jz4aj89', 'https://ror.org/00q6h8f30']</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Department of Medical Sciences Uppsala University Uppsala Sweden</t>
+          <t>C.N.R., Istituto di Chimica dei Composti OrganoMetallici-ICCOM, Sezione di Bari, Dipartimento Farmaco-Chimico, Università di Bari, Via E.Orabona 4, I-70126 Bari, Italy</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['uppsala universi']</t>
+          <t>['universi degli studi di bari aldo moro']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['https://ror.org/048a87296']</t>
+          <t>['https://ror.org/027ynra39']</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Uppsala Clinical Research Center Uppsala University Uppsala Sweden</t>
+          <t>Department of Cardiology, Northwest Clinics Alkmaar, and Radboud University Medical Center Nijmegen The Netherlands</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['uppsala universi']</t>
+          <t>['radboud universi nijmegen']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['https://ror.org/048a87296']</t>
+          <t>['https://ror.org/016xsfp80']</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Graduate School of Science and Engineering, Ritsumeikan University,Kusatsu,Shiga,Japan,525-8577</t>
+          <t>Department of Medical Sciences Uppsala University Uppsala Sweden</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['ritsumeikan universi']</t>
+          <t>['uppsala universi']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['https://ror.org/0197nmd03']</t>
+          <t>['https://ror.org/048a87296']</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>From the Department of Cardiovascular Science and Medicine, Chiba University Graduate School of Medicine, Chiba, Japan (M.A., H.T., T.N., H.H., T.S., Y.M., I.K.); the Department of Cardiovascular Medicine, Graduate School of Medicine, University of Tokyo, Tokyo, Japan (H.U.); and the Department of Metabolic Diseases, Graduate School of Medicine, University of Tokyo, Tokyo, Japan (N.K., T.K.).</t>
+          <t>Department of Medicine III University of Heidelberg Heidelberg Germany</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['universi tokyo']</t>
+          <t>['heidelberg universi']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['https://ror.org/057zh3y96']</t>
+          <t>['https://ror.org/038t36y30']</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Rutgers University,DIMACS,New Brunswick,NJ,USA</t>
+          <t>Uppsala Clinical Research Center Uppsala University Uppsala Sweden</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['rutgers universi']</t>
+          <t>['uppsala universi']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['https://ror.org/05vt9qd57']</t>
+          <t>['https://ror.org/048a87296']</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>Department of Infection, Immunity and Cardiovascular Disease University of Sheffield Sheffield United Kingdom</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>['universi sheffield']</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>['https://ror.org/05krs5044']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Graduate School of Science and Engineering, Ritsumeikan University,Kusatsu,Shiga,Japan,525-8577</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>['ritsumeikan universi']</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['https://ror.org/0197nmd03']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>From the Department of Cardiovascular Science and Medicine, Chiba University Graduate School of Medicine, Chiba, Japan (M.A., H.T., T.N., H.H., T.S., Y.M., I.K.); the Department of Cardiovascular Medicine, Graduate School of Medicine, University of Tokyo, Tokyo, Japan (H.U.); and the Department of Metabolic Diseases, Graduate School of Medicine, University of Tokyo, Tokyo, Japan (N.K., T.K.).</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>['universi tokyo']</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>['https://ror.org/057zh3y96']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Rutgers University,DIMACS,New Brunswick,NJ,USA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>['rutgers universi']</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['https://ror.org/05vt9qd57']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>Petrozavodsk State University;
 City Clinical Hospital named after A. K. Eramishantsev</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>['petrozavodsk state universi']</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>['https://ror.org/0176aa147']</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Division of Pharmaceutics, Department of Pharmacology, Toxicology and Therapeutics School of Pharmacy, Showa University</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>['showa universi']</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>['https://ror.org/04mzk4q39']</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Laboratory of Immunology, National Institute of Allergy and Infectious Diseases, Bethesda, MD 20892.</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>['national institute allergy infectious diseases']</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>['https://ror.org/043z4tv69']</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>From the Institute of Experimental and Clinical Pharmacology and Toxicology (W.-H.Z., K.S., P.S., M.D., F.M., T.E.) and the Institute of Anatomy (W.L.N.), Friedrich-Alexander University of Erlangen-Nuremberg, Erlangen, Germany; the Institute of Pharmacology and Toxicology (J.F.H.), Dresden University of Technology, Dresden, Germany; and the Department of Experimental Cardiology (S.K.), Max-Planck-Institute, Bad Nauheim, Germany.</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>['universi erlangennuremberg', 'universi technology']</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>['https://ror.org/00f7hpc57', 'https://ror.org/03gbw6p94']</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Gazi Üniversitesi</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>['gazi universi']</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>['https://ror.org/054xkpr46']</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GAZİ ÜNİVERSİTESİ, GAZİ EĞİTİM FAKÜLTESİ</t>
+          <t>Division of Pharmaceutics, Department of Pharmacology, Toxicology and Therapeutics School of Pharmacy, Showa University</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['gazi universi']</t>
+          <t>['showa universi']</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['https://ror.org/054xkpr46']</t>
+          <t>['https://ror.org/04mzk4q39']</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>School of Software, Henan Polytechnic University, Jiaozuo 454003, Henan, P. R. China</t>
+          <t>Laboratory of Immunology, National Institute of Allergy and Infectious Diseases, Bethesda, MD 20892.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['henan polytechnic universi']</t>
+          <t>['national institute allergy infectious diseases']</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['https://ror.org/05vr1c885']</t>
+          <t>['https://ror.org/043z4tv69']</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>College of Safety Science and Engineering, Henan Polytechnic University, Jiaozuo 454003, Henan, P. R. China</t>
+          <t>From the Institute of Experimental and Clinical Pharmacology and Toxicology (W.-H.Z., K.S., P.S., M.D., F.M., T.E.) and the Institute of Anatomy (W.L.N.), Friedrich-Alexander University of Erlangen-Nuremberg, Erlangen, Germany; the Institute of Pharmacology and Toxicology (J.F.H.), Dresden University of Technology, Dresden, Germany; and the Department of Experimental Cardiology (S.K.), Max-Planck-Institute, Bad Nauheim, Germany.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['henan polytechnic universi']</t>
+          <t>['universi technology', 'universi erlangen nuremberg']</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['https://ror.org/05vr1c885']</t>
+          <t>['https://ror.org/03gbw6p94', 'https://ror.org/00f7hpc57']</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Robotics Institute, Carnegie Mellon University,Pittsburgh,PA,USA</t>
+          <t>GAZİ ÜNİVERSİTESİ, GAZİ EĞİTİM FAKÜLTESİ</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['carnegie mellon universi']</t>
+          <t>['gazi universi']</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['https://ror.org/05x2bcf33']</t>
+          <t>['https://ror.org/054xkpr46']</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Zhejiang University,School of Software Technology,Ningbo,China</t>
+          <t>Gazi Üniversitesi</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['zhejiang universi']</t>
+          <t>['gazi universi']</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['https://ror.org/00a2xv884']</t>
+          <t>['https://ror.org/054xkpr46']</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nanjing University,State Key Laboratory for Novel Software Technology,Nanjing,China</t>
+          <t>College of Safety Science and Engineering, Henan Polytechnic University, Jiaozuo 454003, Henan, P. R. China</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['nanjing universi']</t>
+          <t>['henan polytechnic universi']</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['https://ror.org/01rxvg760']</t>
+          <t>['https://ror.org/05vr1c885']</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Northeast Petroleum University,School of Petroleum Engineering,Heilongjiang,China</t>
+          <t>School of Software, Henan Polytechnic University, Jiaozuo 454003, Henan, P. R. China</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['northeast petroleum universi']</t>
+          <t>['henan polytechnic universi']</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['https://ror.org/03net5943']</t>
+          <t>['https://ror.org/05vr1c885']</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Lehrstuhl Effiziente Algorithmen, Institut für Informatik, Technische Universität München, D-80290 München, Germany</t>
+          <t>Robotics Institute, Carnegie Mellon University,Pittsburgh,PA,USA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['technische universi munchen']</t>
+          <t>['carnegie mellon universi']</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['https://ror.org/02kkvpp62']</t>
+          <t>['https://ror.org/05x2bcf33']</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Dept. of Electrical Engineering and Computer Science, University of Illinois at Chicago (M/G 154), 851 S Morgan St Fl 11, Chicago IL 60607-7053, USA</t>
+          <t>Nanjing University,State Key Laboratory for Novel Software Technology,Nanjing,China</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['universi illinois chicago']</t>
+          <t>['nanjing universi']</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['https://ror.org/02mpq6x41']</t>
+          <t>['https://ror.org/01rxvg760']</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Hirosaki University</t>
+          <t>Zhejiang University,School of Software Technology,Ningbo,China</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['hirosaki universi']</t>
+          <t>['zhejiang universi']</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['https://ror.org/02syg0q74']</t>
+          <t>['https://ror.org/00a2xv884']</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Volgodonsk Engineering Technical Institute the branch of National Research Nuclear University «MEPhI»</t>
+          <t>Northeast Petroleum University,School of Petroleum Engineering,Heilongjiang,China</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['seversky technological institute branch national research nuclear universi mephi']</t>
+          <t>['northeast petroleum universi']</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['https://ror.org/00se1zw92']</t>
+          <t>['https://ror.org/03net5943']</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Azerbaijan State Oil and Industry University, Azerbaijan</t>
+          <t>Lehrstuhl Effiziente Algorithmen, Institut für Informatik, Technische Universität München, D-80290 München, Germany</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['azerbaijan state universi oil industry']</t>
+          <t>['technische universi munchen']</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['https://ror.org/05mmnns11']</t>
+          <t>['https://ror.org/02kkvpp62']</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>University of Chicago, Ben May Institute, IL 60637.</t>
+          <t>Dept. of Electrical Engineering and Computer Science, University of Illinois at Chicago (M/G 154), 851 S Morgan St Fl 11, Chicago IL 60607-7053, USA</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>['universi chicago']</t>
+          <t>['universi illinois chicago']</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['https://ror.org/024mw5h28']</t>
+          <t>['https://ror.org/02mpq6x41']</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Director, NSF Center for Advanced Cement-Based Materials, Northwestern Univ., 2145 Sheridan Rd., Evanston, IL 60208-4400.</t>
+          <t>Hirosaki University</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['northwestern universi']</t>
+          <t>['hirosaki universi']</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['https://ror.org/000e0be47']</t>
+          <t>['https://ror.org/02syg0q74']</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Research Assistant, NSF Center for Advanced Cement-Based Materials, Northwestern Univ., 2145 Sheridan Rd., Evanston, IL 60208-4400.</t>
+          <t>Volgodonsk Engineering Technical Institute the branch of National Research Nuclear University «MEPhI»</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['northwestern universi']</t>
+          <t>['seversky technological institute branch national research nuclear universi mephi']</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['https://ror.org/000e0be47']</t>
+          <t>['https://ror.org/00se1zw92']</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Professor, Dept. of Industrial Engineering and Management Science, Northwestern Univ., 2145 Sheridan Rd., Evanston, IL 60208-4400.</t>
+          <t>Azerbaijan State Oil and Industry University, Azerbaijan</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>['northwestern universi']</t>
+          <t>['azerbaijan state oil industry universi']</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['https://ror.org/000e0be47']</t>
+          <t>['https://ror.org/05mmnns11']</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Associate Director, National Institute of Statistical Sciences, P.O. Box 14006, Research Triangle Park, NC 27709-4006.</t>
+          <t>University of Chicago, Ben May Institute, IL 60637.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>['national institute statistical sciences']</t>
+          <t>['universi chicago']</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['https://ror.org/03kcsjh25']</t>
+          <t>['https://ror.org/024mw5h28']</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Department of Pathology, University of Pittsburgh, School of Medicine From the , Notre Dame, Indiana 46556 , and the , Pittsburgh, Pennsylvania 15213</t>
+          <t>Research Assistant, NSF Center for Advanced Cement-Based Materials, Northwestern Univ., 2145 Sheridan Rd., Evanston, IL 60208-4400.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>['universi pittsburgh']</t>
+          <t>['northwestern universi']</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['https://ror.org/01an3r305']</t>
+          <t>['https://ror.org/000e0be47']</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Department of Microbiology, Lobund Laboratory, University of Notre Dame From the , Notre Dame, Indiana 46556 , and the , Pittsburgh, Pennsylvania 15213</t>
+          <t>Associate Director, National Institute of Statistical Sciences, P.O. Box 14006, Research Triangle Park, NC 27709-4006.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>['universi notre dame']</t>
+          <t>['national institute statistical sciences', 'research triangle park foundation']</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['https://ror.org/00mkhxb43']</t>
+          <t>['https://ror.org/03kcsjh25', 'https://ror.org/03eqttr49']</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Institute of State and Law of the Russian Academy of Sciences</t>
+          <t>Director, NSF Center for Advanced Cement-Based Materials, Northwestern Univ., 2145 Sheridan Rd., Evanston, IL 60208-4400.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['federal state institution science institute state law russian academy sciences']</t>
+          <t>['northwestern universi']</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['https://ror.org/00g6nvj03']</t>
+          <t>['https://ror.org/000e0be47']</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Department of Organic and Inorganic Chemistry, Faculty of Sciences, Vrije Universiteit, De Boelelaan 1083, NL-1081 HV, Amsterdam, The Netherlands, and Bijvoet Center for Biomolecular Research, Department of Crystal and Structural Chemistry, Utrecht University, Padualaan 8, NL-3584 CH, Utrecht, The Netherlands</t>
+          <t>Professor, Dept. of Industrial Engineering and Management Science, Northwestern Univ., 2145 Sheridan Rd., Evanston, IL 60208-4400.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>['utrecht universi', 'vrije universi amsterdam']</t>
+          <t>['northwestern universi']</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['https://ror.org/008xxew50', 'https://ror.org/04pp8hn57']</t>
+          <t>['https://ror.org/000e0be47']</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Department of Clinical Immunology, University Hospital, Copenhagen, Denmark.</t>
+          <t>Department of Microbiology, Lobund Laboratory, University of Notre Dame From the , Notre Dame, Indiana 46556 , and the , Pittsburgh, Pennsylvania 15213</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>['copenhagen universi hospital']</t>
+          <t>['universi notre dame']</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['https://ror.org/05bpbnx46']</t>
+          <t>['https://ror.org/00mkhxb43']</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>University of Washington, Astronomy Department, Seattle, Washington, United States</t>
+          <t>Department of Pathology, University of Pittsburgh, School of Medicine From the , Notre Dame, Indiana 46556 , and the , Pittsburgh, Pennsylvania 15213</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['universi washington']</t>
+          <t>['universi pittsburgh']</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['https://ror.org/00cvxb145']</t>
+          <t>['https://ror.org/01an3r305']</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Botanisches Institut, Universität zu Köln, Lehrstuhl I, Gyrhofstrasse 15, D-50931 Cologne, Germany</t>
+          <t>Institute of State and Law of the Russian Academy of Sciences</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['universi zu koln']</t>
+          <t>['federal state institution science institute state law russian academy sciences']</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['https://ror.org/00rcxh774']</t>
+          <t>['https://ror.org/00g6nvj03']</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture, ARS, Regional Poultry Research Laboratory From the , 550 First Avenue, New York, New York 10016 and The , East Lansing, Michigan 48823</t>
+          <t>Department of Organic and Inorganic Chemistry, Faculty of Sciences, Vrije Universiteit, De Boelelaan 1083, NL-1081 HV, Amsterdam, The Netherlands, and Bijvoet Center for Biomolecular Research, Department of Crystal and Structural Chemistry, Utrecht University, Padualaan 8, NL-3584 CH, Utrecht, The Netherlands</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['regional research laboratory']</t>
+          <t>['utrecht universi', 'vrije universi amsterdam']</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['https://ror.org/02x351n42']</t>
+          <t>['https://ror.org/008xxew50', 'https://ror.org/04pp8hn57']</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Department of Pathology, New York University School of Medicine From the , 550 First Avenue, New York, New York 10016 and The , East Lansing, Michigan 48823</t>
+          <t>Department of Clinical Immunology, University Hospital, Copenhagen, Denmark.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['new york universi']</t>
+          <t>['copenhagen universi hospital']</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['https://ror.org/0190ak572']</t>
+          <t>['https://ror.org/05bpbnx46']</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Beijing Chao-yang Hospital Capital Medical University;Beijing Center for Clinical Laboratories</t>
+          <t>University of Washington, Astronomy Department, Seattle, Washington, United States</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['beijing luhe hospital affiliated to capital medical universi']</t>
+          <t>['universi washington']</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['https://ror.org/01zyn4z03']</t>
+          <t>['https://ror.org/00cvxb145']</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Comprehensive Disease Control and Prevention Center of Inner Mongolia Autonomous Region</t>
+          <t>Botanisches Institut, Universität zu Köln, Lehrstuhl I, Gyrhofstrasse 15, D-50931 Cologne, Germany</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['inner mongolia autonomous region comprehensive disease prevention control center']</t>
+          <t>['universi zu koln']</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>['https://ror.org/02xy6bg05']</t>
+          <t>['https://ror.org/00rcxh774']</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Beijing Jishuitan Hospital</t>
+          <t>United States Department of Agriculture, ARS, Regional Poultry Research Laboratory From the , 550 First Avenue, New York, New York 10016 and The , East Lansing, Michigan 48823</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>['beijing jishuitan hospital']</t>
+          <t>['regional research laboratory']</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>['https://ror.org/035t17984']</t>
+          <t>['https://ror.org/02x351n42']</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Department of Chemical Immunology, The Weizmann Institute of Science From the , Rehovot, Israel</t>
+          <t>Department of Pathology, New York University School of Medicine From the , 550 First Avenue, New York, New York 10016 and The , East Lansing, Michigan 48823</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>['weizmann institute science']</t>
+          <t>['new york universi']</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['https://ror.org/0316ej306']</t>
+          <t>['https://ror.org/0190ak572']</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>College of Criminal Justice, Naif Arab University for Security Sciences, Saudi Arabia</t>
+          <t>Beijing Jishuitan Hospital</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['naif arab universi security sciences']</t>
+          <t>['beijing jishuitan hospital']</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>['https://ror.org/049c46160']</t>
+          <t>['https://ror.org/035t17984']</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>University of South-Eastern Norway,Department of Maritime Operations,Horten,Norway</t>
+          <t>Comprehensive Disease Control and Prevention Center of Inner Mongolia Autonomous Region</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['universi southeastern norway']</t>
+          <t>['inner mongolia autonomous region comprehensive disease prevention control center']</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>['https://ror.org/05ecg5h20']</t>
+          <t>['https://ror.org/02xy6bg05']</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Department of Obstetrics &amp; Gynecology, New York University Grossman School of Medicine, New York</t>
+          <t>Beijing Chao-yang Hospital Capital Medical University;Beijing Center for Clinical Laboratories</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>['new york universi']</t>
+          <t>['beijing luhe hospital affiliated to capital medical universi']</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>['https://ror.org/0190ak572']</t>
+          <t>['https://ror.org/01zyn4z03']</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Institute for Enzyme Research, Tokushima University, Tokushima 770‐8503, Japan</t>
+          <t>Department of Chemical Immunology, The Weizmann Institute of Science From the , Rehovot, Israel</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>['tokushima universi']</t>
+          <t>['weizmann institute science']</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>['https://ror.org/044vy1d05']</t>
+          <t>['https://ror.org/0316ej306']</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Centre for Neuroscience Research, GKT School of Biomedical Sciences, King's College London, London SE1 1UL, UK</t>
+          <t>College of Criminal Justice, Naif Arab University for Security Sciences, Saudi Arabia</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>['kings college london']</t>
+          <t>['naif arab universi security sciences']</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>['https://ror.org/0220mzb33']</t>
+          <t>['https://ror.org/049c46160']</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Laboratory of Biology, Graduate School of Commerce and Management, Hitotsubashi University, Tokyo 186‐8601, Japan</t>
+          <t>University of South-Eastern Norway,Department of Maritime Operations,Horten,Norway</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>['hitotsubashi universi']</t>
+          <t>['universi south eastern norway']</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>['https://ror.org/04jqj7p05']</t>
+          <t>['https://ror.org/05ecg5h20']</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Freie Universität Berlin</t>
+          <t>Department of Population Health Sciences, Weill Cornell Medicine, New York, New York</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>['freie universi berlin']</t>
+          <t>['department health sciences']</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>['https://ror.org/046ak2485']</t>
+          <t>['https://ror.org/049c9xv68']</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>School of Computer Science, Qufu Normal University, Rizhao 276826, China</t>
+          <t>Department of Obstetrics &amp; Gynecology, New York University Grossman School of Medicine, New York</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['qufu normal universi']</t>
+          <t>['new york universi']</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>['https://ror.org/03ceheh96']</t>
+          <t>['https://ror.org/0190ak572']</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Department of Electrical Engineering and Information Technology, Shandong University of Science and Technology, Jinan 250031, China</t>
+          <t>Laboratory of Biology, Graduate School of Commerce and Management, Hitotsubashi University, Tokyo 186‐8601, Japan</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>['shandong universi science technology']</t>
+          <t>['hitotsubashi universi']</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>['https://ror.org/04gtjhw98']</t>
+          <t>['https://ror.org/04jqj7p05']</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Department of Pathology, University of Michigan, Ann Arbor 48109.</t>
+          <t>Centre for Neuroscience Research, GKT School of Biomedical Sciences, King's College London, London SE1 1UL, UK</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>['universi michigan']</t>
+          <t>['kings college london']</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>['https://ror.org/00jmfr291']</t>
+          <t>['https://ror.org/0220mzb33']</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Tokushima University</t>
+          <t>Institute for Enzyme Research, Tokushima University, Tokushima 770‐8503, Japan</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2018,228 +2018,228 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Department de Bioquimica e Imunologia, Universidade Federal de Minas Gerais, Brazil.</t>
+          <t>Freie Universität Berlin</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>['universi federal minas gerais']</t>
+          <t>['freie universi berlin']</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>['https://ror.org/0176yjw32']</t>
+          <t>['https://ror.org/046ak2485']</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Department of Microbiology, University of Tennessee, Knoxville 37996-0845.</t>
+          <t>School of Computer Science, Qufu Normal University, Rizhao 276826, China</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>['universi tennessee']</t>
+          <t>['qufu normal universi']</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>['https://ror.org/020f3ap87']</t>
+          <t>['https://ror.org/03ceheh96']</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Department of Medicine, The University of Chicago, Pritzker School of Medicine , and the , 1   Chicago, Illinois 60637</t>
+          <t>Department of Electrical Engineering and Information Technology, Shandong University of Science and Technology, Jinan 250031, China</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>['universi chicago']</t>
+          <t>['shandong universi science technology']</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>['https://ror.org/024mw5h28']</t>
+          <t>['https://ror.org/04gtjhw98']</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Moscow Automobile and Road Construction State Technical University (MADI)</t>
+          <t>Department of Pathology, University of Michigan, Ann Arbor 48109.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>['moscow automobile road construction state technical universi']</t>
+          <t>['universi michigan']</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>['https://ror.org/0257qw677']</t>
+          <t>['https://ror.org/00jmfr291']</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Manipal University,Department of Information Technology,Jaipur</t>
+          <t>Tokushima University</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>['department electronics information technology', 'manipal universi']</t>
+          <t>['tokushima universi']</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>['https://ror.org/02xzytt36', 'https://ror.org/02z31cn83']</t>
+          <t>['https://ror.org/044vy1d05']</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>College of Artificial Intelligence, Nankai University,Tianjin,China</t>
+          <t>Department de Bioquimica e Imunologia, Universidade Federal de Minas Gerais, Brazil.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>['nankai universi']</t>
+          <t>['universi federal minas gerais']</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>['https://ror.org/01y1kjr75']</t>
+          <t>['https://ror.org/0176yjw32']</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>School of Vehicle and Mobility, Tsinghua University,Beijing,China</t>
+          <t>Department of Microbiology, University of Tennessee, Knoxville 37996-0845.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>['tsinghua universi']</t>
+          <t>['universi tennessee']</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>['https://ror.org/03cve4549']</t>
+          <t>['https://ror.org/00xzqjh13']</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Center for Biomedical Imaging Technology, University of Connecticut Health Center, Farmington, Connecticut 06117;</t>
+          <t>Department of Medicine, The University of Chicago, Pritzker School of Medicine , and the , 1   Chicago, Illinois 60637</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>['universi connecticut health center']</t>
+          <t>['universi chicago']</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>['https://ror.org/02kzs4y22']</t>
+          <t>['https://ror.org/024mw5h28']</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Department of Internal Medicine, University of Iowa College of Medicine, Iowa City 52242, USA.</t>
+          <t>Moscow Automobile and Road Construction State Technical University (MADI)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>['universi iowa']</t>
+          <t>['moscow automobile road construction state technical universi']</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>['https://ror.org/036jqmy94']</t>
+          <t>['https://ror.org/0257qw677']</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Human Research and Ethics Committee, National Institute of Integrative Medicine, Gisborne, Australia</t>
+          <t>Manipal University,Department of Information Technology,Jaipur</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>['national institute integrative medicine']</t>
+          <t>['department electronics information technology', 'manipal universi']</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>['https://ror.org/00zxymv65']</t>
+          <t>['https://ror.org/02z31cn83', 'https://ror.org/02xzytt36']</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Dagestan State University</t>
+          <t>College of Artificial Intelligence, Nankai University,Tianjin,China</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>['dagestan state universi']</t>
+          <t>['nankai universi']</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>['https://ror.org/01vw69t89']</t>
+          <t>['https://ror.org/01y1kjr75']</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Chechen State University Named after A. A. Kadyrova</t>
+          <t>School of Vehicle and Mobility, Tsinghua University,Beijing,China</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>['chechen state universi']</t>
+          <t>['tsinghua universi']</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>['https://ror.org/004ze6w33']</t>
+          <t>['https://ror.org/03cve4549']</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Laboratory of Microbial Immunity, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland</t>
+          <t>Center for Biomedical Imaging Technology, University of Connecticut Health Center, Farmington, Connecticut 06117;</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
+          <t>['universi connecticut health center']</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>['https://ror.org/043z4tv69', 'https://ror.org/01cwqze88']</t>
+          <t>['https://ror.org/02kzs4y22']</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2Pathology, University of Iowa, Iowa City, IA</t>
+          <t>Department of Internal Medicine, University of Iowa College of Medicine, Iowa City 52242, USA.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2256,391 +2256,391 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Tianjin University,China</t>
+          <t>Human Research and Ethics Committee, National Institute of Integrative Medicine, Gisborne, Australia</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>['tianjin universi']</t>
+          <t>['national institute integrative medicine']</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>['https://ror.org/012tb2g32']</t>
+          <t>['https://ror.org/00zxymv65']</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Carleton University,Canada</t>
+          <t>Chechen State University Named after A. A. Kadyrova</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>['carleton universi']</t>
+          <t>['chechen state universi']</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>['https://ror.org/02qtvee93']</t>
+          <t>['https://ror.org/004ze6w33']</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Beijing University of Technology,China</t>
+          <t>Dagestan State University</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>['beijing universi technology']</t>
+          <t>['dagestan state universi']</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>['https://ror.org/037b1pp87']</t>
+          <t>['https://ror.org/01vw69t89']</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Department of English and Communication, The International Research Centre for the Advancement of Health Communication, The Hong Kong Polytechnic University</t>
+          <t>Laboratory of Microbial Immunity, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>['hong kong polytechnic universi']</t>
+          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>['https://ror.org/0030zas98']</t>
+          <t>['https://ror.org/01cwqze88', 'https://ror.org/043z4tv69']</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Department of Medicine, Division of Infectious Diseases, Zealand University Hospital Roskilde, Denmark</t>
+          <t>2Pathology, University of Iowa, Iowa City, IA</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>['zealand universi hospital']</t>
+          <t>['universi iowa']</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>['https://ror.org/00363z010']</t>
+          <t>['https://ror.org/036jqmy94']</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Department of Biochemistry, Queen's University, Kingston, Ontario, Canada K7L 3N6</t>
+          <t>4Health Science Research, Mayo Clinic, Rochester, MN</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>['queens universi']</t>
+          <t>['mayo clinic']</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>['https://ror.org/02y72wh86']</t>
+          <t>['https://ror.org/02qp3tb03']</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Department of Biology, Queen's University, Kingston, Ontario, Canada K7L 3N6</t>
+          <t>1Immunology, Mayo Clinic, Rochester, MN</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>['queens universi']</t>
+          <t>['mayo clinic']</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>['https://ror.org/02y72wh86']</t>
+          <t>['https://ror.org/02qp3tb03']</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Institute for Flight Mechanics and Controls,The Faculty of Aerospace Engineering and Geodesy,University of Stuttgart,Stuttgart,Germany,70569</t>
+          <t>Carleton University,Canada</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>['universi stuttgart']</t>
+          <t>['carleton universi']</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>['https://ror.org/04vnq7t77']</t>
+          <t>['https://ror.org/02qtvee93']</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Max Planck Institute for Intelligent Systems.,T&amp;#x00FC;bingen,Germany,72076</t>
+          <t>Tianjin University,China</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>['max planck institute intelligent systems']</t>
+          <t>['tianjin universi']</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>['https://ror.org/04fq9j139']</t>
+          <t>['https://ror.org/012tb2g32']</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Inner Mongolia Agricultural University, Mechanical and Electrical Engineering College, Hohhot, China</t>
+          <t>Beijing University of Technology,China</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>['inner mongolia agricultural universi', 'shenyang mechanical electrical engineering college']</t>
+          <t>['beijing universi technology']</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>['https://ror.org/015d0jq83', 'https://ror.org/00d7f8730']</t>
+          <t>['https://ror.org/037b1pp87']</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Department of Biology, University of California, San Diego, La Jolla 92093-0063.</t>
+          <t>Department of English and Communication, The International Research Centre for the Advancement of Health Communication, The Hong Kong Polytechnic University</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>['universi california san diego']</t>
+          <t>['hong kong polytechnic universi']</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>['https://ror.org/0168r3w48']</t>
+          <t>['https://ror.org/0030zas98']</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Department of Materials Science and Engineering Dalian Maritime University  Dalian 116085 China</t>
+          <t>Department of Medicine, Division of Infectious Diseases, Zealand University Hospital Roskilde, Denmark</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>['dalian maritime universi']</t>
+          <t>['zealand universi hospital']</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>['https://ror.org/002b7nr53']</t>
+          <t>['https://ror.org/00363z010']</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Division of Clinical Immunology, Department of Medicine, University of Colorado Medical School , Denver, Colorado 80220</t>
+          <t>Department of Biochemistry, Queen's University, Kingston, Ontario, Canada K7L 3N6</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>['universi colorado']</t>
+          <t>['queens universi']</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>['https://ror.org/00jc20583']</t>
+          <t>['https://ror.org/00strmv13']</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Experimental Immunology Branch, National Cancer Institute, Bethesda, MD 20892.</t>
+          <t>Department of Biology, Queen's University, Kingston, Ontario, Canada K7L 3N6</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>['national cancer institute']</t>
+          <t>['queens universi']</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>['https://ror.org/040gcmg81']</t>
+          <t>['https://ror.org/00strmv13']</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>KÜTAHYA DUMLUPINAR ÜNİVERSİTESİ</t>
+          <t>Max Planck Institute for Intelligent Systems.,T&amp;#x00FC;bingen,Germany,72076</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>['dumlupinar universi']</t>
+          <t>['max planck institute intelligent systems']</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>['https://ror.org/03jtrja12']</t>
+          <t>['https://ror.org/04fq9j139']</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Laboratory of Immunology, Division of Hematologic Products, Center for Biologics Evaluation Research and Review, U.S. Food and Drug Administration, Bethesda, MD</t>
+          <t>Institute for Flight Mechanics and Controls,The Faculty of Aerospace Engineering and Geodesy,University of Stuttgart,Stuttgart,Germany,70569</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>['center biologics evaluation research']</t>
+          <t>['universi stuttgart']</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>['https://ror.org/02nr3fr97']</t>
+          <t>['https://ror.org/04vnq7t77']</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>College of Resources and Environment, University of Chinese Academy of Sciences  Beijing China</t>
+          <t>Inner Mongolia Agricultural University, Mechanical and Electrical Engineering College, Hohhot, China</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>['universi chinese academy sciences']</t>
+          <t>['inner mongolia agricultural universi', 'shenyang mechanical electrical engineering college']</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>['https://ror.org/05qbk4x57']</t>
+          <t>['https://ror.org/00d7f8730', 'https://ror.org/015d0jq83']</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Beijing Yanshan Earth Critical Zone National Research Station University of Chinese Academy of Sciences  Beijing China</t>
+          <t>Department of Biology, University of California, San Diego, La Jolla 92093-0063.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>['universi chinese academy sciences']</t>
+          <t>['universi california san diego']</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>['https://ror.org/05qbk4x57']</t>
+          <t>['https://ror.org/0168r3w48']</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Institute of General Ecology and Environmental Protection, Technische Universität Dresden, Pienner Strasse 7  Tharandt Germany</t>
+          <t>Department of Materials Science and Engineering Dalian Maritime University  Dalian 116085 China</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>['technische universi dresden']</t>
+          <t>['dalian maritime universi']</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>['https://ror.org/042aqky30']</t>
+          <t>['https://ror.org/002b7nr53']</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Leipzig Institute for Meteorology, Universität Leipzig, Stephanstraße 3  Leipzig Germany</t>
+          <t>Division of Clinical Immunology, Department of Medicine, University of Colorado Medical School , Denver, Colorado 80220</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>['universi leipzig']</t>
+          <t>['universi colorado']</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>['https://ror.org/03s7gtk40']</t>
+          <t>['https://ror.org/00jc20583']</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Jiangxi Key Laboratory of Plant Resources and Biodiversity Jingdezhen University  Jingdezhen China</t>
+          <t>Experimental Immunology Branch, National Cancer Institute, Bethesda, MD 20892.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>['jingdezhen universi']</t>
+          <t>['national cancer institute']</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>['https://ror.org/012czx379']</t>
+          <t>['https://ror.org/040gcmg81']</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>UFZ‐Helmholtz Centre for Environmental Research, Department of Community Ecology, Theodor‐Lieser‐Strasse 4  Halle (Saale) Germany</t>
+          <t>KÜTAHYA DUMLUPINAR ÜNİVERSİTESİ</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>['helmholtz centre environmental research']</t>
+          <t>['kutahya dumlupinar universi']</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>['https://ror.org/000h6jb29']</t>
+          <t>['https://ror.org/03jtrja12']</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Institute of Biology, Leipzig University, Puschstrasse 4  Leipzig Germany</t>
+          <t>Laboratory of Immunology, Division of Hematologic Products, Center for Biologics Evaluation Research and Review, U.S. Food and Drug Administration, Bethesda, MD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>['leipzig universi']</t>
+          <t>['center biologics evaluation research']</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>['https://ror.org/03s7gtk40']</t>
+          <t>['https://ror.org/02nr3fr97']</t>
         </is>
       </c>
     </row>
@@ -2657,3220 +2657,3492 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>['https://ror.org/051escj72', 'https://ror.org/02feahw73']</t>
+          <t>['https://ror.org/02feahw73', 'https://ror.org/051escj72']</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Institute of Biology/Geobotany and Botanical Garden, Martin Luther University Halle‐Wittenberg, Am Kirchtor 1  Halle Germany</t>
+          <t>Institute of Geography, University of Tübingen, Rümelinstrasse 19‐23  Tübingen Germany</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>['martin luther universi hallewittenberg']</t>
+          <t>['universi tubingen']</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>['https://ror.org/05gqaka33']</t>
+          <t>['https://ror.org/03a1kwz48']</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>College of Forestry Jiangxi Agricultural University  Nanchang China</t>
+          <t>Beijing Yanshan Earth Critical Zone National Research Station University of Chinese Academy of Sciences  Beijing China</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>['china agricultural universi']</t>
+          <t>['universi chinese academy sciences']</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>['https://ror.org/04v3ywz14']</t>
+          <t>['https://ror.org/05qbk4x57']</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Institute of Geography, University of Tübingen, Rümelinstrasse 19‐23  Tübingen Germany</t>
+          <t>College of Resources and Environment, University of Chinese Academy of Sciences  Beijing China</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>['universi tubingen']</t>
+          <t>['universi chinese academy sciences']</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>['https://ror.org/03a1kwz48']</t>
+          <t>['https://ror.org/05qbk4x57']</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Laboratory of Immunology, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland 20014</t>
+          <t>Leipzig Institute for Meteorology, Universität Leipzig, Stephanstraße 3  Leipzig Germany</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
+          <t>['universi leipzig']</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>['https://ror.org/043z4tv69', 'https://ror.org/01cwqze88']</t>
+          <t>['https://ror.org/03s7gtk40']</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Blood Bank Department, Clinical Center, National Institutes of Health From the , Bethesda, Maryland , and the , Bethesda, Maryland 20014</t>
+          <t>Institute of Biology/Geobotany and Botanical Garden, Martin Luther University Halle‐Wittenberg, Am Kirchtor 1  Halle Germany</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>['national institutes health']</t>
+          <t>['martin luther universi halle wittenberg']</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>['https://ror.org/01cwqze88']</t>
+          <t>['https://ror.org/05gqaka33']</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Laboratory of Infectious Diseases, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland , and the , Bethesda, Maryland 20014</t>
+          <t>College of Forestry Jiangxi Agricultural University  Nanchang China</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
+          <t>['jiangxi agricultural universi']</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>['https://ror.org/043z4tv69', 'https://ror.org/01cwqze88']</t>
+          <t>['https://ror.org/00dc7s858']</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>University of Cantabria, Spain</t>
+          <t>UFZ‐Helmholtz Centre for Environmental Research, Department of Community Ecology, Theodor‐Lieser‐Strasse 4  Halle (Saale) Germany</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>['universi cantabria']</t>
+          <t>['helmholtz centre environmental research']</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>['https://ror.org/046ffzj20']</t>
+          <t>['https://ror.org/000h6jb29']</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Department of Neurosurgery, Osaka University Graduate School of Medicine</t>
+          <t>Institute of General Ecology and Environmental Protection, Technische Universität Dresden, Pienner Strasse 7  Tharandt Germany</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>['osaka graduate universi']</t>
+          <t>['technische universi dresden']</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>['https://ror.org/04a8t1e98']</t>
+          <t>['https://ror.org/042aqky30']</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Department of Neurosurgery, Hanwa Memorial Hospital</t>
+          <t>Institute of Biology, Leipzig University, Puschstrasse 4  Leipzig Germany</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>['hanwa memorial hospital']</t>
+          <t>['leipzig universi']</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>['https://ror.org/03zsbd109']</t>
+          <t>['https://ror.org/03s7gtk40']</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Universität Konstanz, Fakultät für Biologie, Germany.</t>
+          <t>Jiangxi Key Laboratory of Plant Resources and Biodiversity Jingdezhen University  Jingdezhen China</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>['universi konstanz']</t>
+          <t>['jingdezhen universi']</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>['https://ror.org/0546hnb39']</t>
+          <t>['https://ror.org/012czx379']</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Department of Medicine, Johns Hopkins Asthma and Allergy Center, Johns Hopkins University, Baltimore, MD 21224, USA.</t>
+          <t>Laboratory of Immunology, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland 20014</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>['johns hopkins universi']</t>
+          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>['https://ror.org/00za53h95']</t>
+          <t>['https://ror.org/01cwqze88', 'https://ror.org/043z4tv69']</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>College of Computer Science, Civil Aviation Flight University of China, Guanghan, China</t>
+          <t>YILDIZ TEKNİK ÜNİVERSİTESİ</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>['civil aviation flight universi china']</t>
+          <t>['yildiz teknik universi']</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>['https://ror.org/01xyb1v19']</t>
+          <t>['https://ror.org/0547yzj13']</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>University of California,RoMeLa (the Robotics and Mechanisms Laboratory),Los Angeles,USA</t>
+          <t>Laboratory of Infectious Diseases, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland , and the , Bethesda, Maryland 20014</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>['universi california los angeles']</t>
+          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>['https://ror.org/046rm7j60']</t>
+          <t>['https://ror.org/01cwqze88', 'https://ror.org/043z4tv69']</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SÜLEYMAN DEMİREL ÜNİVERSİTESİ</t>
+          <t>Blood Bank Department, Clinical Center, National Institutes of Health From the , Bethesda, Maryland , and the , Bethesda, Maryland 20014</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>['suleyman demirel universi']</t>
+          <t>['national institutes health']</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>['https://ror.org/04fjtte88']</t>
+          <t>['https://ror.org/01cwqze88']</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>School of Electronic Information and Electrical Engineering, Shanghai Jiao Tong University,Shanghai,China</t>
+          <t>University of Cantabria, Spain</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>['shanghai jiao tong universi']</t>
+          <t>['universi cantabria']</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>['https://ror.org/0220qvk04']</t>
+          <t>['https://ror.org/046ffzj20']</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Cornell University,Department of Computer Science,Ithaca,NY,USA</t>
+          <t>НАВЧАЛЬНО-НАУКОВИЙ ІНСТИТУТ МОРСЬКОГО БІЗНЕСУ, ОДЕСЬКИЙ НАЦІОНАЛЬНИЙ МОРСЬКИЙ УНІВЕРСИТЕТ, Одеса, Україна</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>['cornell universi']</t>
+          <t>['odeskii natsionalnii morskii universi']</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>['https://ror.org/05bnh6r87']</t>
+          <t>['https://ror.org/05qze6v15']</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Columbia University,USA</t>
+          <t>Department of Neurosurgery, Osaka University Graduate School of Medicine</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>['columbia universi']</t>
+          <t>['osaka graduate universi']</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>['https://ror.org/00hj8s172']</t>
+          <t>['https://ror.org/04a8t1e98']</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology,Laboratory for Information and Decision Systems,Cambridge,MA,USA,02139</t>
+          <t>Department of Neurosurgery, Hanwa Memorial Hospital</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>['massachusetts institute technology']</t>
+          <t>['hanwa memorial hospital']</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>['https://ror.org/042nb2s44']</t>
+          <t>['https://ror.org/03zsbd109']</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Department of Pathology, Uniformed Services University of the Health Sciences, Bethesda, MD 20814.</t>
+          <t>Universität Konstanz, Fakultät für Biologie, Germany.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>['uniformed services universi health sciences']</t>
+          <t>['universi konstanz']</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>['https://ror.org/04r3kq386']</t>
+          <t>['https://ror.org/0546hnb39']</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Department of Oral and Maxillofacial Surgery, School of Dentistry, Pusan National University, Yangsan, Korea</t>
+          <t>Department of Medicine, Johns Hopkins Asthma and Allergy Center, Johns Hopkins University, Baltimore, MD 21224, USA.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>['pusan national universi']</t>
+          <t>['johns hopkins universi']</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>['https://ror.org/01an57a31']</t>
+          <t>['https://ror.org/00za53h95']</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Guangzhou Key Laboratory of Analytical Chemistry for Biomedicine South China Normal University  Guangzhou 510006 China</t>
+          <t>College of Computer Science, Civil Aviation Flight University of China, Guanghan, China</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>['south china normal universi']</t>
+          <t>['civil aviation flight universi china']</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>['https://ror.org/01kq0pv72']</t>
+          <t>['https://ror.org/01xyb1v19']</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>South China Academy of Advanced Optoelectronics South China Normal University  Guangzhou 510006 China</t>
+          <t>University of California,RoMeLa (the Robotics and Mechanisms Laboratory),Los Angeles,USA</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>['south china normal universi']</t>
+          <t>['universi california los angeles']</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>['https://ror.org/01kq0pv72']</t>
+          <t>['https://ror.org/046rm7j60']</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Department of Microbiology, The George Washington University Medical Center From the , Bethesda, Maryland , and the , Washington, District of Columbia</t>
+          <t>SÜLEYMAN DEMİREL ÜNİVERSİTESİ</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>['washington universi medical center']</t>
+          <t>['suleyman demirel universi']</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>['https://ror.org/036c27j91']</t>
+          <t>['https://ror.org/04fjtte88']</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Laboratory of Microbiology and Immunology, National Institute of Dental Research, National Institutes of Health From the , Bethesda, Maryland , and the , Washington, District of Columbia</t>
+          <t>Cornell University,Department of Computer Science,Ithaca,NY,USA</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>['national institutes health']</t>
+          <t>['cornell universi']</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>['https://ror.org/01cwqze88']</t>
+          <t>['https://ror.org/05bnh6r87']</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Institute of General Pathology, University of Palermo, ISMEDA-CNR, Italy.</t>
+          <t>Columbia University,USA</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>['universi palermo']</t>
+          <t>['columbia universi']</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>['https://ror.org/04fz79c74']</t>
+          <t>['https://ror.org/00hj8s172']</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>University of Erlangen-Nurnberg, Faculty of Medicine, Department of Medicine IV, Erlangen, Germany.</t>
+          <t>School of Electronic Information and Electrical Engineering, Shanghai Jiao Tong University,Shanghai,China</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>['friedrichalexanderuniversity erlangennurnberg']</t>
+          <t>['shanghai jiao tong universi']</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>['https://ror.org/00f7hpc57']</t>
+          <t>['https://ror.org/0220qvk04']</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Department of Chemistry, University of British Columbia, Vancouver, BC, Canada, V6T 1Z1</t>
+          <t>Massachusetts Institute of Technology,Laboratory for Information and Decision Systems,Cambridge,MA,USA,02139</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>['universi british columbia']</t>
+          <t>['massachusetts institute technology']</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>['https://ror.org/03rmrcq20']</t>
+          <t>['https://ror.org/042nb2s44']</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCN MedTech, Department of Information and Communication Technologies, Universitat Pompeu Fabra, Barcelona, Spain</t>
+          <t>Department of Pathology, Uniformed Services University of the Health Sciences, Bethesda, MD 20814.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>['universi pompeu fabra']</t>
+          <t>['uniformed services universi health sciences']</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>['https://ror.org/04n0g0b29']</t>
+          <t>['https://ror.org/04r3kq386']</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Department of Biomedical Engineering and Mechanics, Virginia Tech, Blacksburg, VA, USA</t>
+          <t>Department of Oral and Maxillofacial Surgery, School of Dentistry, Pusan National University, Yangsan, Korea</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>['virginia tech']</t>
+          <t>['pusan national universi']</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>['https://ror.org/02smfhw86']</t>
+          <t>['https://ror.org/01an57a31']</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Serra H&amp;#x00FA;nter Fellow Programme, Universitat Pompeu Fabra, Barcelona, Spain</t>
+          <t>Department of Materials Science and Engineering Sun Yat‐Sen University  Guangzhou 510275 China</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>['universi pompeu fabra']</t>
+          <t>['sun yat sen universi']</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>['https://ror.org/04n0g0b29']</t>
+          <t>['https://ror.org/0064kty71']</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Ph.D. Candidate, Dept. of Civil Engineering, Univ. of Manitoba, Winnipeg, MB, Canada R3T 5V6; Lecture and Research Assistant, Dept. of Structural Engineering, Future Univ., Cairo 11835, Egypt.</t>
+          <t>South China Academy of Advanced Optoelectronics South China Normal University  Guangzhou 510006 China</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>['future universi', 'universi manitoba']</t>
+          <t>['south china normal universi']</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>['https://ror.org/0092t1z08', 'https://ror.org/02gfys938']</t>
+          <t>['https://ror.org/01kq0pv72']</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Professor, Dept. of Civil Engineering, Univ. of Manitoba, Winnipeg, MB, Canada R3T 5V6 (corresponding author).</t>
+          <t>School of Materials Sun Yat‐Sen University  Guangzhou Guangdong 510275 China</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>['universi manitoba']</t>
+          <t>['sun yat sen universi']</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>['https://ror.org/02gfys938']</t>
+          <t>['https://ror.org/0064kty71']</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Salesian Polytechnic University,Electrical engineering department,Quito,Ecuador</t>
+          <t>Guangzhou Key Laboratory of Analytical Chemistry for Biomedicine South China Normal University  Guangzhou 510006 China</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>['salesian universi']</t>
+          <t>['south china normal universi']</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>['https://ror.org/04vhngq09']</t>
+          <t>['https://ror.org/01kq0pv72']</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Department of Transplantation Immunology, Institute of Immunology, University of Heidelberg, Germany.</t>
+          <t>Department of Psychiatry, Albert-Ludwigs-University, Freiburg, Germany.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>['heidelberg universi']</t>
+          <t>['albert ludwigs universi freiburg']</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>['https://ror.org/038t36y30']</t>
+          <t>['https://ror.org/0245cg223']</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>From the Hypertension and Vascular Research Division, Henry Ford Hospital, Detroit, Mich.</t>
+          <t>Laboratory of Microbiology and Immunology, National Institute of Dental Research, National Institutes of Health From the , Bethesda, Maryland , and the , Washington, District of Columbia</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>['henry ford hospital']</t>
+          <t>['national institutes health']</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>['https://ror.org/0193sb042']</t>
+          <t>['https://ror.org/01cwqze88']</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Graphic Era University,Department of ECE,Dehradun,India</t>
+          <t>Department of Microbiology, The George Washington University Medical Center From the , Bethesda, Maryland , and the , Washington, District of Columbia</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>['graphic era universi']</t>
+          <t>['washington universi medical center']</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>['https://ror.org/03wqgqd89']</t>
+          <t>['https://ror.org/036c27j91']</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Graphic Era Hill University,Department of ECE,Bhimtal,India</t>
+          <t>Institute of General Pathology, University of Palermo, ISMEDA-CNR, Italy.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>['graphic era hill universi']</t>
+          <t>['universi palermo']</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>['https://ror.org/01bb4h160']</t>
+          <t>['https://ror.org/044k9ta02']</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>KAHRAMANMARAŞ SÜTÇÜ İMAM ÜNİVERSİTESİ, KAHRAMANMARAŞ MESLEK YÜKSEKOKULU</t>
+          <t>University of Erlangen-Nurnberg, Faculty of Medicine, Department of Medicine IV, Erlangen, Germany.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>['kahramanmaras sutcu imam universi']</t>
+          <t>['friedrich alexander universi erlangen nurnberg']</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>['https://ror.org/03gn5cg19']</t>
+          <t>['https://ror.org/00f7hpc57']</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Department of Pathology, University of Maryland, School of Medicine, Baltimore 21201.</t>
+          <t>Department of Chemistry, University of British Columbia, Vancouver, BC, Canada, V6T 1Z1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>['universi maryland']</t>
+          <t>['universi british columbia']</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>['https://ror.org/047s2c258']</t>
+          <t>['https://ror.org/03rmrcq20']</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Department of Biomedical Laboratory Science and Microbiological Resource Research Institute, Far East University, Eumseong 27601, Republic of Korea</t>
+          <t>BCN MedTech, Department of Information and Communication Technologies, Universitat Pompeu Fabra, Barcelona, Spain</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>['far east universi']</t>
+          <t>['universi pompeu fabra']</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>['https://ror.org/03ms7mr17']</t>
+          <t>['https://ror.org/04n0g0b29']</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Universitat Polit&amp;#x00E8;cnica de Val&amp;#x00E8;ncia,iTEAM Research Institute,Photonics Research Labs,Valencia,Spain</t>
+          <t>Serra H&amp;#x00FA;nter Fellow Programme, Universitat Pompeu Fabra, Barcelona, Spain</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>['universi politecnica valencia']</t>
+          <t>['universi pompeu fabra']</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>['https://ror.org/01460j859']</t>
+          <t>['https://ror.org/04n0g0b29']</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>National Institute of Immunology, New Delhi, India.</t>
+          <t>Department of Biomedical Engineering and Mechanics, Virginia Tech, Blacksburg, VA, USA</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>['national institute immunology']</t>
+          <t>['virginia tech']</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>['https://ror.org/04fhee747']</t>
+          <t>['https://ror.org/02smfhw86']</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Department of Pathology, University of Iowa College of Medicine, Iowa City 52242.</t>
+          <t>Ph.D. Candidate, Dept. of Civil Engineering, Univ. of Manitoba, Winnipeg, MB, Canada R3T 5V6; Lecture and Research Assistant, Dept. of Structural Engineering, Future Univ., Cairo 11835, Egypt.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>['universi iowa']</t>
+          <t>['future universi', 'universi manitoba']</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>['https://ror.org/036jqmy94']</t>
+          <t>['https://ror.org/0092t1z08', 'https://ror.org/02gfys938']</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>*Institut National de la Santé et de la Recherche Médicale (INSERM) U345, Institut Necker, and</t>
+          <t>Professor, Dept. of Civil Engineering, Univ. of Manitoba, Winnipeg, MB, Canada R3T 5V6 (corresponding author).</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>['institut national la sante la recherche medicale']</t>
+          <t>['universi manitoba']</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>['https://ror.org/02vjkv261']</t>
+          <t>['https://ror.org/02gfys938']</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>†Centre National de la Recherche Scientifique, Unité de Recherche Associée 1461, and</t>
+          <t>Salesian Polytechnic University,Electrical engineering department,Quito,Ecuador</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>['centre national la recherche scientifique']</t>
+          <t>['polytechnic universi']</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>['https://ror.org/02feahw73']</t>
+          <t>['https://ror.org/02f0psx94']</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Duke University Medical Center , Durham, N. C.</t>
+          <t>Department of Transplantation Immunology, Institute of Immunology, University of Heidelberg, Germany.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>['duke universi medical center']</t>
+          <t>['heidelberg universi']</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>['https://ror.org/03njmea73']</t>
+          <t>['https://ror.org/038t36y30']</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>*Division of Critical Care, Children’s Hospital Medical Center, Cincinnati, OH 45229; and</t>
+          <t>From the Hypertension and Vascular Research Division, Henry Ford Hospital, Detroit, Mich.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>['childrens hospital medical center']</t>
+          <t>['henry ford hospital']</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>['https://ror.org/04j36h363']</t>
+          <t>['https://ror.org/0193sb042']</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>†Department of Pathophysiology, University Medical School of Debrecen, Debrecen, Hungary</t>
+          <t>Graphic Era University,Department of ECE,Dehradun,India</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>['universi debrecen']</t>
+          <t>['graphic era universi']</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>['https://ror.org/02xf66n48']</t>
+          <t>['https://ror.org/03wqgqd89']</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Departments of Pathology and Microbiology, Washington University School of Medicine From the , St. Louis, Missouri 63110</t>
+          <t>Graphic Era Hill University,Department of ECE,Bhimtal,India</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>['universi washington']</t>
+          <t>['graphic era hill universi']</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>['https://ror.org/00cvxb145']</t>
+          <t>['https://ror.org/01bb4h160']</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Resident, Department of Conservative Dentistry, Chonnam National University, Gwangju, Republic of Korea</t>
+          <t>KAHRAMANMARAŞ SÜTÇÜ İMAM ÜNİVERSİTESİ, KAHRAMANMARAŞ MESLEK YÜKSEKOKULU</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>['chonnam national universi']</t>
+          <t>['kahramanmaras sutcu imam universi']</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>['https://ror.org/05kzjxq56']</t>
+          <t>['https://ror.org/03gn5cg19']</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Professor, Department of Conservative Dentistry, Chonnam National University, Gwangju, Republic of Korea</t>
+          <t>ANKARA HACI BAYRAM VELİ ÜNİVERSİTESİ</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>['chonnam national universi']</t>
+          <t>['ankara haci bayram veli universi']</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>['https://ror.org/05kzjxq56']</t>
+          <t>['https://ror.org/05mskc574']</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>International Research Center for Neurointelligence (World Premier International Research Center Initiative; WPI-IRCN), Institutes for Advanced Study (UTIAS), The University of Tokyo, Tokyo 113-0033, Japan</t>
+          <t>Department of Pathology, University of Maryland, School of Medicine, Baltimore 21201.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>['universi tokyo']</t>
+          <t>['universi maryland']</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>['https://ror.org/057zh3y96']</t>
+          <t>['https://ror.org/047s2c258']</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Laboratoire de Sciences Cognitives et Psycholinguistique, Ecole Normale Supérieure, Paris Sciences et Lettres, 75005 Paris, France</t>
+          <t>Department of Biomedical Laboratory Science and Microbiological Resource Research Institute, Far East University, Eumseong 27601, Republic of Korea</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>['laboratoire sciences cognitives psycholinguistique', 'ecole normale superieure']</t>
+          <t>['far east universi']</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>['https://ror.org/01dp7jr64', 'https://ror.org/05fvhm231']</t>
+          <t>['https://ror.org/03ms7mr17']</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Department of Psychology, University of Toronto, Toronto, ON M5S 3G3, Canada</t>
+          <t>Universitat Polit&amp;#x00E8;cnica de Val&amp;#x00E8;ncia,iTEAM Research Institute,Photonics Research Labs,Valencia,Spain</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>['universi toronto']</t>
+          <t>['universi politecnica valencia']</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>['https://ror.org/03dbr7087']</t>
+          <t>['https://ror.org/01460j859']</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Senior Lecturer at the Department at the Civil and Labor Law Department of the Odesa National Maritime University</t>
+          <t>National Institute of Immunology, New Delhi, India.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>['national universi']</t>
+          <t>['national institute immunology']</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>['https://ror.org/003r3cg42']</t>
+          <t>['https://ror.org/04fhee747']</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Doctor of Law (2nd PhD), Professor, Head of the educational and scientific laboratory of legal regulation of shipping and cargo protection, Professor at the Civil and Labor Law Department of the Odessa National Maritime University</t>
+          <t>Department of Pathology, University of Iowa College of Medicine, Iowa City 52242.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>['odessa national maritime universi']</t>
+          <t>['universi iowa']</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>['https://ror.org/05qze6v15']</t>
+          <t>['https://ror.org/036jqmy94']</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>†Department of Life Science and School of Environmental Engineering, Pohang University of Science and Technology, Pohang, South Korea</t>
+          <t>*Institut National de la Santé et de la Recherche Médicale (INSERM) U345, Institut Necker, and</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>['pohang universi science technology']</t>
+          <t>['institut national la sante la recherche medicale']</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>['https://ror.org/04xysgw12']</t>
+          <t>['https://ror.org/02vjkv261']</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>University of Illinois From the , Miami, Florida , the , Urbana, Illinois and the , Bimini, Bahamas</t>
+          <t>†Centre National de la Recherche Scientifique, Unité de Recherche Associée 1461, and</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>['universi illinois']</t>
+          <t>['centre national la recherche scientifique']</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>['https://ror.org/05e94g991']</t>
+          <t>['https://ror.org/02feahw73']</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Department of Microbiology, University of Miami School of Medicine From the , Miami, Florida , the , Urbana, Illinois and the , Bimini, Bahamas</t>
+          <t>Duke University Medical Center , Durham, N. C.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>['miami universi']</t>
+          <t>['duke universi medical center']</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>['https://ror.org/05nbqxr67']</t>
+          <t>['https://ror.org/04bct7p84']</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Department of Electrical and Computer Engineering, National Yang Ming Chiao Tung University, Hsinchu, Taiwan</t>
+          <t>†Department of Pathophysiology, University Medical School of Debrecen, Debrecen, Hungary</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>['national yang ming chiao tung universi']</t>
+          <t>['universi debrecen']</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>['https://ror.org/00se2k293']</t>
+          <t>['https://ror.org/02xf66n48']</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Faculty of Food Technology and Biotechnology, University of Zagreb, Croatia</t>
+          <t>*Division of Critical Care, Children’s Hospital Medical Center, Cincinnati, OH 45229; and</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>['universi zagreb']</t>
+          <t>['childrens hospital  medical center']</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>['https://ror.org/00mv6sv71']</t>
+          <t>['https://ror.org/04j36h363']</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Department of Biochemistry, Medical College of Miyazaki From the , Kiyotake, Miyazaki 889-16, Japan</t>
+          <t>Departments of Pathology and Microbiology, Washington University School of Medicine From the , St. Louis, Missouri 63110</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>['miyazaki welfare medical college']</t>
+          <t>['universi washington']</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>['https://ror.org/03jrtp196']</t>
+          <t>['https://ror.org/00cvxb145']</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Division of Allergy and Pulmonary Disease, Children's Hospital, Stanford, CA.</t>
+          <t>Resident, Department of Conservative Dentistry, Chonnam National University, Gwangju, Republic of Korea</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>['childrens hospital']</t>
+          <t>['chonnam national universi']</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>['https://ror.org/0511k4970']</t>
+          <t>['https://ror.org/05kzjxq56']</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>University of Malaga, Испания</t>
+          <t>Professor, Department of Conservative Dentistry, Chonnam National University, Gwangju, Republic of Korea</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>['universi malaga']</t>
+          <t>['chonnam national universi']</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>['https://ror.org/036b2ww28']</t>
+          <t>['https://ror.org/05kzjxq56']</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>HSE University, Moscow</t>
+          <t>Laboratoire de Sciences Cognitives et Psycholinguistique, Ecole Normale Supérieure, Paris Sciences et Lettres, 75005 Paris, France</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>['universi univer']</t>
+          <t>['laboratoire sciences cognitives psycholinguistique', 'ecole normale superieure']</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>['https://ror.org/00erejq84']</t>
+          <t>['https://ror.org/01dp7jr64', 'https://ror.org/05fvhm231']</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>University of Memphis,Department of Computer Science</t>
+          <t>Department of Psychology, University of Toronto, Toronto, ON M5S 3G3, Canada</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>['universi memphis']</t>
+          <t>['universi toronto']</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>['https://ror.org/01cq23130']</t>
+          <t>['https://ror.org/03dbr7087']</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>University of Maryland at College Park,Department of Computer Science</t>
+          <t>International Research Center for Neurointelligence (World Premier International Research Center Initiative; WPI-IRCN), Institutes for Advanced Study (UTIAS), The University of Tokyo, Tokyo 113-0033, Japan</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>['universi maryland college park']</t>
+          <t>['universi tokyo']</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>['https://ror.org/047s2c258']</t>
+          <t>['https://ror.org/057zh3y96']</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Department of Psychology, University of British Columbia, Vancouver, Canada</t>
+          <t>Doctor of Law (2nd PhD), Professor, Head of the educational and scientific laboratory of legal regulation of shipping and cargo protection, Professor at the Civil and Labor Law Department of the Odessa National Maritime University</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>['universi british columbia']</t>
+          <t>['odessa national maritime universi']</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>['https://ror.org/03rmrcq20']</t>
+          <t>['https://ror.org/05qze6v15']</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Department of Psychology, Simon Fraser University, Burnaby, Canada</t>
+          <t>Senior Lecturer at the Department at the Civil and Labor Law Department of the Odesa National Maritime University</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>['simon fraser universi']</t>
+          <t>['national universi']</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>['https://ror.org/0213rcc28']</t>
+          <t>['https://ror.org/003r3cg42']</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Department of Psychiatry, University of British Columbia, Vancouver, Canada</t>
+          <t>†Department of Life Science and School of Environmental Engineering, Pohang University of Science and Technology, Pohang, South Korea</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>['universi british columbia']</t>
+          <t>['pohang universi science technology']</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>['https://ror.org/03rmrcq20']</t>
+          <t>['https://ror.org/04xysgw12']</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Almetyevsk State Oil Institute</t>
+          <t>Department of Microbiology, University of Miami School of Medicine From the , Miami, Florida , the , Urbana, Illinois and the , Bimini, Bahamas</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>['almetyevsk state oil institute']</t>
+          <t>['universi miami']</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>['https://ror.org/00g1je163']</t>
+          <t>['https://ror.org/02dgjyy92']</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>University of Texas Medical Branch, Department of Internal Medicine, Galveston 77555, USA.</t>
+          <t>University of Illinois From the , Miami, Florida , the , Urbana, Illinois and the , Bimini, Bahamas</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>['universi texas medical branch galveston']</t>
+          <t>['universi illinois']</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>['https://ror.org/016tfm930']</t>
+          <t>['https://ror.org/05e94g991']</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Assistant Professor, Department of Microbial Biotechnology, Bharathiar University, Coimbatore 641046, Tamil Nadu, India.</t>
+          <t>Department of Electrical and Computer Engineering, National Yang Ming Chiao Tung University, Hsinchu, Taiwan</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>['bharathiar universi']</t>
+          <t>['national yang ming chiao tung universi']</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>['https://ror.org/04fht8c22']</t>
+          <t>['https://ror.org/00se2k293']</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>National University of Uzbekistan named after M. Ulugbek</t>
+          <t>Faculty of Food Technology and Biotechnology, University of Zagreb, Croatia</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>['national universi uzbekistan']</t>
+          <t>['universi zagreb']</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>['https://ror.org/011647w73']</t>
+          <t>['https://ror.org/00mv6sv71']</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Department of Pathology, New England Medical Center, Boston, MA 02111.</t>
+          <t>Department of Biochemistry, Medical College of Miyazaki From the , Kiyotake, Miyazaki 889-16, Japan</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>['tuftsnew england medical center']</t>
+          <t>['miyazaki welfare medical college']</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>['https://ror.org/002hsbm82']</t>
+          <t>['https://ror.org/03jrtp196']</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Adıyaman Üniversitesi</t>
+          <t>Division of Allergy and Pulmonary Disease, Children's Hospital, Stanford, CA.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>['adıyaman universi']</t>
+          <t>['childrens hospital']</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>['https://ror.org/02s4gkg68']</t>
+          <t>['https://ror.org/0511k4970']</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>University of Washington and Fred Hutchinson Cancer Center</t>
+          <t>University of Malaga, Испания</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>['universi washington']</t>
+          <t>['universi malaga']</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>['https://ror.org/00cvxb145']</t>
+          <t>['https://ror.org/036b2ww28']</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Department of Clinical Laboratory The Third Medical Centre of Chinese PLA General Hospital The Training Site for Postgraduate of Jinzhou Medical University  Beijing China</t>
+          <t>University of Maryland at College Park,Department of Computer Science</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>['china medical universi']</t>
+          <t>['universi maryland college park']</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>['https://ror.org/032d4f246']</t>
+          <t>['https://ror.org/047s2c258']</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Sobolev Institute of Mathematics, Siberian Branch of the Russian Academy of Sciences</t>
+          <t>University of Memphis,Department of Computer Science</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>['siberian branch russian academy sciences']</t>
+          <t>['universi memphis']</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>['https://ror.org/02frkq021']</t>
+          <t>['https://ror.org/01cq23130']</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Brown University, Providence, RI, USA</t>
+          <t>Department of Psychiatry, University of British Columbia, Vancouver, Canada</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>['brown universi']</t>
+          <t>['universi british columbia']</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>['https://ror.org/05gq02987']</t>
+          <t>['https://ror.org/03rmrcq20']</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>School of Mechanical Engineering, Xinjiang University, Wulumuqi, People’s Republic of China</t>
+          <t>Department of Psychology, University of British Columbia, Vancouver, Canada</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>['xinjiang universi']</t>
+          <t>['universi british columbia']</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>['https://ror.org/059gw8r13']</t>
+          <t>['https://ror.org/03rmrcq20']</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Department of Pathology, University of Michigan Medical School, Ann Arbor 48109, USA.</t>
+          <t>Department of Psychology, Simon Fraser University, Burnaby, Canada</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>['universi michigan']</t>
+          <t>['simon fraser universi']</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>['https://ror.org/00jmfr291']</t>
+          <t>['https://ror.org/0213rcc28']</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Cancer Biology Research Laboratory, Department of Radiology, Stanford University School of Medicine From the , Stanford, California 94305</t>
+          <t>Almetyevsk State Oil Institute</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>['stanford universi']</t>
+          <t>['almetyevsk state oil institute']</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>['https://ror.org/00f54p054']</t>
+          <t>['https://ror.org/00g1je163']</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Transplantation Immunology and Blood Transfusion Service, University Hospital From the , Milan, Italy</t>
+          <t>University of Texas Medical Branch, Department of Internal Medicine, Galveston 77555, USA.</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>['groningen universi hospital']</t>
+          <t>['universi texas medical branch galveston']</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>['https://ror.org/03cv38k47']</t>
+          <t>['https://ror.org/016tfm930']</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Dermatology Branch, National Cancer Institute, Bethesda, MD 20892.</t>
+          <t>Assistant Professor, Department of Microbial Biotechnology, Bharathiar University, Coimbatore 641046, Tamil Nadu, India.</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>['national cancer institute']</t>
+          <t>['bharathiar universi']</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>['https://ror.org/040gcmg81']</t>
+          <t>['https://ror.org/04fht8c22']</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Departments of Medicine and Microbiology, College of Physicians and Surgeons, Columbia University From the , New York, New York</t>
+          <t>National University of Uzbekistan named after M. Ulugbek</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>['columbia universi']</t>
+          <t>['national universi uzbekistan']</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>['https://ror.org/00hj8s172']</t>
+          <t>['https://ror.org/011647w73']</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>*Institut National de la Santé et de la Recherche Médicale, CJF 95-01, Institut Curie, Section Recherche, Paris, France; and</t>
+          <t>Department of Pathology, New England Medical Center, Boston, MA 02111.</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>['institut curie', 'institut national la sante la recherche medicale']</t>
+          <t>['tufts new england medical center']</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>['https://ror.org/04t0gwh46', 'https://ror.org/02vjkv261']</t>
+          <t>['https://ror.org/002hsbm82']</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>University of Johannesburg, South Africa</t>
+          <t>Adıyaman Üniversitesi</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>['universi johannesburg']</t>
+          <t>['adiyaman universi']</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>['https://ror.org/04z6c2n17']</t>
+          <t>['https://ror.org/02s4gkg68']</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Hult International Business School, Greece</t>
+          <t>University of Washington and Fred Hutchinson Cancer Center</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>['hult international business school']</t>
+          <t>['fred hutchinson universi washington cancer consortium']</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>['https://ror.org/01wttbg53']</t>
+          <t>['https://ror.org/009tqys91']</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Glasgow Caledonian University, UK</t>
+          <t>Department of Clinical Laboratory The Third Medical Centre of Chinese PLA General Hospital The Training Site for Postgraduate of Jinzhou Medical University  Beijing China</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>['glasgow caledonian universi']</t>
+          <t>['china medical universi']</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>['https://ror.org/03dvm1235']</t>
+          <t>['https://ror.org/032d4f246']</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>From the Cardiovascular Medicine Section, Department of Medicine, Boston Medical Center and Myocardial Biology Unit, Boston University School of Medicine, Boston, Mass (D.B.S., T.A.M.), and the Institute of Cell Biology, Swiss Federal Institute of Technology, Zurich, and Swiss Cardiovascular Center Bern, Inselspital, Bern, Switzerland (C.Z., H.M.E., T.M.S.).</t>
+          <t>Sobolev Institute of Mathematics, Siberian Branch of the Russian Academy of Sciences</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>['boston universi', 'institute cell biology']</t>
+          <t>['siberian branch russian academy sciences']</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>['https://ror.org/05qwgg493', 'https://ror.org/04fg7fb49']</t>
+          <t>['https://ror.org/02frkq021']</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BURSA TEKNİK ÜNİVERSİTESİ</t>
+          <t>Hitachi High-Tech Corporation,Minato-ku,Tokyo,Japan</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>['bursa teknik universi']</t>
+          <t>['hitachi high tech']</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>['https://ror.org/03rdpn141']</t>
+          <t>['https://ror.org/033a1rv92']</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BURSA TECHNICAL UNIVERSITY</t>
+          <t>Brown University, Providence, RI, USA</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>['bursa technical universi']</t>
+          <t>['brown universi']</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>['https://ror.org/03rdpn141']</t>
+          <t>['https://ror.org/05gq02987']</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Department of Biochemistry, Kyushu University School of Dentistry, Fukuoka, Japan.</t>
+          <t>School of Mechanical Engineering, Xinjiang University, Wulumuqi, People’s Republic of China</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>['kyushu universi']</t>
+          <t>['xinjiang universi']</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>['https://ror.org/00p4k0j84']</t>
+          <t>['https://ror.org/059gw8r13']</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Department of Pathology, Yale University School of Medicine From the , New Haven, Connecticut</t>
+          <t>Department of Pathology, University of Michigan Medical School, Ann Arbor 48109, USA.</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>['yale universi']</t>
+          <t>['universi michigan']</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>['https://ror.org/03v76x132']</t>
+          <t>['https://ror.org/00jmfr291']</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Heriot-Watt University</t>
+          <t>Department of Forest Engineering, Resources, and Management Oregon State University  Corvallis OR USA</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>['heriotwatt universi']</t>
+          <t>['oregon state universi']</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>['https://ror.org/04mghma93']</t>
+          <t>['https://ror.org/00ysfqy60']</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Russian University of Transport (MIIT)</t>
+          <t>Cancer Biology Research Laboratory, Department of Radiology, Stanford University School of Medicine From the , Stanford, California 94305</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>['russian universi transport']</t>
+          <t>['stanford universi']</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>['https://ror.org/05gba0366']</t>
+          <t>['https://ror.org/00f54p054']</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Dept. of Electrical and Electronics Engineering, Yasar University, Izmir, Turkey</t>
+          <t>Transplantation Immunology and Blood Transfusion Service, University Hospital From the , Milan, Italy</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>['yasar universi']</t>
+          <t>['mie universi hospital']</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>['https://ror.org/00dz1eb96']</t>
+          <t>['https://ror.org/01v9g9c07']</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>The Graduate School of Natural and Sciences, Dokuz Eylul University, Izmir, Turkey</t>
+          <t>Dermatology Branch, National Cancer Institute, Bethesda, MD 20892.</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>['dokuz eylul universi']</t>
+          <t>['national cancer institute']</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>['https://ror.org/00dbd8b73']</t>
+          <t>['https://ror.org/040gcmg81']</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Section on Biologic Structure, Laboratory of Clinical Investigation, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland 20014</t>
+          <t>Departments of Medicine and Microbiology, College of Physicians and Surgeons, Columbia University From the , New York, New York</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
+          <t>['columbia universi']</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>['https://ror.org/043z4tv69', 'https://ror.org/01cwqze88']</t>
+          <t>['https://ror.org/00hj8s172']</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>AFYON KOCATEPE ÜNİVERSİTESİ, AFYON MESLEK YÜKSEKOKULU</t>
+          <t>*Institut National de la Santé et de la Recherche Médicale, CJF 95-01, Institut Curie, Section Recherche, Paris, France; and</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>['afyon kocatepe universi']</t>
+          <t>['institut curie', 'institut national la sante la recherche medicale']</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>['https://ror.org/03a1crh56']</t>
+          <t>['https://ror.org/04t0gwh46', 'https://ror.org/02vjkv261']</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Department of Evolutionary Biology, Evolutionary Biology Centre, Uppsala University, Norbyvägen 18D, SE-752 36 Uppsala, Sweden</t>
+          <t>Glasgow Caledonian University, UK</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>['uppsala universi']</t>
+          <t>['glasgow caledonian universi']</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>['https://ror.org/048a87296']</t>
+          <t>['https://ror.org/03dvm1235']</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Cooperative Research Center, Tokyo University of Agriculture and Technology, Koganei, Tokyo 184-8588, Japan</t>
+          <t>University of Johannesburg, South Africa</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>['tokyo universi agriculture technology']</t>
+          <t>['universi johannesburg']</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>['https://ror.org/00qg0kr10']</t>
+          <t>['https://ror.org/04z6c2n17']</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Department of Medicine, University of Utah School of Medicine, Salt Lake City 84132, USA.</t>
+          <t>Hult International Business School, Greece</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>['universi utah']</t>
+          <t>['hult international business school']</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>['https://ror.org/03r0ha626']</t>
+          <t>['https://ror.org/01wttbg53']</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Department of Chemistry, University of California at Santa Barbara , Boston, Massachusetts 02115 , and the , Santa Barbara, California 93106</t>
+          <t>From the Cardiovascular Medicine Section, Department of Medicine, Boston Medical Center and Myocardial Biology Unit, Boston University School of Medicine, Boston, Mass (D.B.S., T.A.M.), and the Institute of Cell Biology, Swiss Federal Institute of Technology, Zurich, and Swiss Cardiovascular Center Bern, Inselspital, Bern, Switzerland (C.Z., H.M.E., T.M.S.).</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>['universi california santa barbara']</t>
+          <t>['boston universi', 'institute cell biology']</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>['https://ror.org/02t274463']</t>
+          <t>['https://ror.org/04fg7fb49', 'https://ror.org/05qwgg493']</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>&amp;#x00C9;cole Polytechnique F&amp;#x00E9;d&amp;#x00E9;rale de Lausanne,Distributed Intelligent Systems and Algorithms Laboratory,Lausanne,Switzerland</t>
+          <t>BURSA TEKNİK ÜNİVERSİTESİ</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>['ecole polytechnique federale lausanne']</t>
+          <t>['bursa teknik universi']</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>['https://ror.org/02s376052']</t>
+          <t>['https://ror.org/03rdpn141']</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Institute for Systems and Robotics, Instituto Superior T&amp;#x00E9;cnico,Lisbon,Portugal</t>
+          <t>BURSA TECHNICAL UNIVERSITY</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>['institute intelligent systems robotics']</t>
+          <t>['bursa technical universi']</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>['https://ror.org/05neq8668']</t>
+          <t>['https://ror.org/03rdpn141']</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Contribution from the Departamento de Química Orgánica I, Facultad de Química, Universidad del País Vasco, Apdo. 1072, 20080 San Sebastián, Spain; Departamento de Química Aplicada, Universidad Pública de Navarra, Campus de Arrosadía, 31006 Pamplona, Spain; Unidade de Resonancia Magnetica, R.I.A.I.D.T., CACTUS, Universidad de Santiago de Compostela, 15782 A Coruna, Spain; and Organisch-chemisches Institut der Universität Zürich, Winterthurerstrasse 190, CH-8057, Zürich, Switzerland</t>
+          <t>Department of Biochemistry, Kyushu University School of Dentistry, Fukuoka, Japan.</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>['universi del pais vasco', 'universi publica navarra', 'universi santiago compostela']</t>
+          <t>['kyushu universi']</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>['https://ror.org/030eybx10', 'https://ror.org/000xsnr85', 'https://ror.org/02z0cah89']</t>
+          <t>['https://ror.org/00p4k0j84']</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>OSMANİYE KORKUT ATA ÜNİVERSİTESİ</t>
+          <t>Department of Pathology, Yale University School of Medicine From the , New Haven, Connecticut</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>['osmaniye korkut ata universi']</t>
+          <t>['yale universi']</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>['https://ror.org/03h8sa373']</t>
+          <t>['https://ror.org/03v76x132']</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>School of Public Health, Department of Health Policy Management and Human Nutrition, Moi University, Eldoret, Kenya</t>
+          <t>Heriot-Watt University</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>['moi universi']</t>
+          <t>['heriot watt universi']</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>['https://ror.org/04p6eac84']</t>
+          <t>['https://ror.org/04mghma93']</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Department of Population Health, Aga Khan University East Africa, Nairobi</t>
+          <t>Russian University of Transport (MIIT)</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>['aga khan universi']</t>
+          <t>['russian universi transport']</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>['https://ror.org/02wwrqj12']</t>
+          <t>['https://ror.org/05gba0366']</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>School of Public Health, Department of Environmental Health, Moi University, Eldoret, Kenya</t>
+          <t>The Graduate School of Natural and Sciences, Dokuz Eylul University, Izmir, Turkey</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>['moi universi']</t>
+          <t>['dokuz eylul universi']</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>['https://ror.org/04p6eac84']</t>
+          <t>['https://ror.org/00dbd8b73']</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>School of School of Nursing, Department of Midwifery and Gender, Moi University, Eldoret, Kenya</t>
+          <t>Dept. of Electrical and Electronics Engineering, Yasar University, Izmir, Turkey</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>['moi universi']</t>
+          <t>['yasar universi']</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>['https://ror.org/04p6eac84']</t>
+          <t>['https://ror.org/00dz1eb96']</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>School of Education, Department of Education Psychology, Moi University, Eldoret, Kenya</t>
+          <t>Section on Biologic Structure, Laboratory of Clinical Investigation, National Institute of Allergy and Infectious Diseases, National Institutes of Health From the , Bethesda, Maryland 20014</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>['moi universi']</t>
+          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>['https://ror.org/04p6eac84']</t>
+          <t>['https://ror.org/01cwqze88', 'https://ror.org/043z4tv69']</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Department of Internal Medicine, Peking Union Medical College Hospital, Chinese Academy of Medical Sciences and Peking Union Medical College , Beijing , China and</t>
+          <t>AFYON KOCATEPE ÜNİVERSİTESİ, AFYON MESLEK YÜKSEKOKULU</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>['chinese academy medical sciences peking union medical college', 'peking union medical college hospital']</t>
+          <t>['afyon kocatepe universi']</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>['https://ror.org/04jztag35', 'https://ror.org/02drdmm93']</t>
+          <t>['https://ror.org/05es91y67']</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Department of Gastroenterology, Peking Union Medical College Hospital, Chinese Academy of Medical Sciences and Peking Union Medical College , Beijing , China</t>
+          <t>Department of Evolutionary Biology, Evolutionary Biology Centre, Uppsala University, Norbyvägen 18D, SE-752 36 Uppsala, Sweden</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>['chinese academy medical sciences peking union medical college', 'peking union medical college hospital']</t>
+          <t>['uppsala universi']</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>['https://ror.org/04jztag35', 'https://ror.org/02drdmm93']</t>
+          <t>['https://ror.org/048a87296']</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Department of Gastroenterology, Beijing Hospital, National Center of Gerontology</t>
+          <t>Cooperative Research Center, Tokyo University of Agriculture and Technology, Koganei, Tokyo 184-8588, Japan</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>['beijing hospital', 'national center geriatrics gerontology']</t>
+          <t>['tokyo universi agriculture technology']</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>['https://ror.org/05h0rw812', 'https://ror.org/02jwb5s28']</t>
+          <t>['https://ror.org/00qg0kr10']</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>State Key Laboratory of Molecular Oncology, National Cancer Center/National Clinical Research Center for Cancer/Cancer Hospital, Chinese Academy of Medical Sciences and Peking Union Medical College , Beijing , China</t>
+          <t>Department of Medicine, University of Utah School of Medicine, Salt Lake City 84132, USA.</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>['chinese academy medical sciences peking union medical college']</t>
+          <t>['universi utah']</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>['https://ror.org/02drdmm93']</t>
+          <t>['https://ror.org/03r0ha626']</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>School of Electrical Engineering and Automation, Harbin Institute of Technology, Harbin, China</t>
+          <t>Department of Chemistry, University of California at Santa Barbara , Boston, Massachusetts 02115 , and the , Santa Barbara, California 93106</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>['harbin institute technology']</t>
+          <t>['universi california santa barbara']</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>['https://ror.org/01yqg2h08']</t>
+          <t>['https://ror.org/02t274463']</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Departments of Surgery and Microbiology and Public Health, Michigan State University From the , East Lansing, Michigan 48824</t>
+          <t>&amp;#x00C9;cole Polytechnique F&amp;#x00E9;d&amp;#x00E9;rale de Lausanne,Distributed Intelligent Systems and Algorithms Laboratory,Lausanne,Switzerland</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>['michigan state universi']</t>
+          <t>['ecole polytechnique federale lausanne']</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>['https://ror.org/05hs6h993']</t>
+          <t>['https://ror.org/02s376052']</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Ahsanullah University of Science and Technology,Dept. of Electrical and Electronic Engineering,Dhaka,Bangladesh</t>
+          <t>Institute for Systems and Robotics, Instituto Superior T&amp;#x00E9;cnico,Lisbon,Portugal</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>['ahsanullah universi science technology']</t>
+          <t>['instituto superior tecnico', 'institute intelligent systems robotics']</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>['https://ror.org/04wfbp123']</t>
+          <t>['https://ror.org/03db2by73', 'https://ror.org/05neq8668']</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Osaka University</t>
+          <t>Contribution from the Departamento de Química Orgánica I, Facultad de Química, Universidad del País Vasco, Apdo. 1072, 20080 San Sebastián, Spain; Departamento de Química Aplicada, Universidad Pública de Navarra, Campus de Arrosadía, 31006 Pamplona, Spain; Unidade de Resonancia Magnetica, R.I.A.I.D.T., CACTUS, Universidad de Santiago de Compostela, 15782 A Coruna, Spain; and Organisch-chemisches Institut der Universität Zürich, Winterthurerstrasse 190, CH-8057, Zürich, Switzerland</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>['osaka universi']</t>
+          <t>['universi santiago compostela', 'universi del pais vasco', 'universi publica navarra']</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>['https://ror.org/035t8zc32']</t>
+          <t>['https://ror.org/02z0cah89', 'https://ror.org/000xsnr85', 'https://ror.org/030eybx10']</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Department of Microbiology, University of Texas Health Science Center, San Antonio 78284.</t>
+          <t>OSMANİYE KORKUT ATA ÜNİVERSİTESİ</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>['texas health science universi']</t>
+          <t>['osmaniye korkut ata universi']</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>['https://ror.org/041621784']</t>
+          <t>['https://ror.org/03h8sa373']</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Rockefeller University , New York, New York 10021</t>
+          <t>School of Public Health, Department of Environmental Health, Moi University, Eldoret, Kenya</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>['rockefeller universi']</t>
+          <t>['moi universi']</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>['https://ror.org/0420db125']</t>
+          <t>['https://ror.org/04p6eac84']</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Chuvash State University</t>
+          <t>Department of Population Health, Aga Khan University East Africa, Nairobi</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>['chuvash state universi']</t>
+          <t>['aga khan universi']</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>['https://ror.org/01jmd7f74']</t>
+          <t>['https://ror.org/02wwrqj12']</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>*Department of Paediatric Gastroenterology, St. Bartholomew’s and The Royal London School of Medicine and Dentistry, St. Bartholomew’s Hospital, London, United Kingdom; and</t>
+          <t>School of Education, Department of Education Psychology, Moi University, Eldoret, Kenya</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>['st bartholomews hospital']</t>
+          <t>['moi universi']</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>['https://ror.org/00nh9x179']</t>
+          <t>['https://ror.org/04p6eac84']</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Samara State University of Economics (SSEU)</t>
+          <t>School of School of Nursing, Department of Midwifery and Gender, Moi University, Eldoret, Kenya</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>['samara state universi economics']</t>
+          <t>['moi universi']</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>['https://ror.org/02wsba348']</t>
+          <t>['https://ror.org/04p6eac84']</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Universidad Técnica de Machala, Programa de maestría en Medicina Veterinaria, mención Clínica y Cirugía de Pequeñas Especies. Machala, El Oro, Ecuador - RenatoVetDerm. Davie, Florida, Estados Unidos de América</t>
+          <t>School of Public Health, Department of Health Policy Management and Human Nutrition, Moi University, Eldoret, Kenya</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>['universi tecnica machala']</t>
+          <t>['moi universi']</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>['https://ror.org/036zk8k10']</t>
+          <t>['https://ror.org/04p6eac84']</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Universidad Científica del Sur. Lima, Perú</t>
+          <t>Institute of Geriatric Medicine, Chinese Academy of Medical Sciences , Beijing , China</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>['universi cientifica del sur']</t>
+          <t>['chinese academy medical sciences']</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>['https://ror.org/04xr5we72']</t>
+          <t>['https://ror.org/02drdmm93']</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Peng Cheng Laboratory,Shenzhen,China</t>
+          <t>Department of Gastroenterology, Beijing Hospital, National Center of Gerontology</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>['peng cheng laboratory']</t>
+          <t>['beijing hospital', 'national center geriatrics gerontology']</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>['https://ror.org/03qdqbt06']</t>
+          <t>['https://ror.org/05h0rw812', 'https://ror.org/02jwb5s28']</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Department of Bacteriology and Immunity, Leland Stanford Jr. University From the</t>
+          <t>State Key Laboratory of Molecular Oncology, National Cancer Center/National Clinical Research Center for Cancer/Cancer Hospital, Chinese Academy of Medical Sciences and Peking Union Medical College , Beijing , China</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>['stanford universi']</t>
+          <t>['chinese academy medical sciences  peking union medical college']</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>['https://ror.org/00f54p054']</t>
+          <t>['https://ror.org/02drdmm93']</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Department of Plant Biology, University of Illinois, Urbana 61801, USA.</t>
+          <t>Department of Gastroenterology, Peking Union Medical College Hospital, Chinese Academy of Medical Sciences and Peking Union Medical College , Beijing , China</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>['universi illinois']</t>
+          <t>['peking union medical college hospital', 'chinese academy medical sciences  peking union medical college']</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>['https://ror.org/05e94g991']</t>
+          <t>['https://ror.org/04jztag35', 'https://ror.org/02drdmm93']</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>From the Department of Cardiovascular Medicine, School of Medical Sciences (R.N., K.E., Y.M., S.H., M.T., H.T., A.T.), and Department of Biophysics, Faculty of Pharmaceutical Sciences (H.U.), Kyushu University, Fukuoka, Japan.</t>
+          <t>Department of Internal Medicine, Peking Union Medical College Hospital, Chinese Academy of Medical Sciences and Peking Union Medical College , Beijing , China and</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>['kyushu universi']</t>
+          <t>['peking union medical college hospital', 'chinese academy medical sciences  peking union medical college']</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>['https://ror.org/00p4k0j84']</t>
+          <t>['https://ror.org/04jztag35', 'https://ror.org/02drdmm93']</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Faculty of Social Sciences, Waseda University, Japan.</t>
+          <t>School of Electrical Engineering and Automation, Harbin Institute of Technology, Harbin, China</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>['waseda universi']</t>
+          <t>['harbin institute technology']</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>['https://ror.org/00ntfnx83']</t>
+          <t>['https://ror.org/01yqg2h08']</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Graduate School of Social Sciences, Waseda University, Japan</t>
+          <t>Departments of Surgery and Microbiology and Public Health, Michigan State University From the , East Lansing, Michigan 48824</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>['waseda universi']</t>
+          <t>['michigan state universi']</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>['https://ror.org/00ntfnx83']</t>
+          <t>['https://ror.org/05hs6h993']</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>J Amorim, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
+          <t>Ahsanullah University of Science and Technology,Dept. of Electrical and Electronic Engineering,Dhaka,Bangladesh</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>['hospital universi fundacion jimenez diaz']</t>
+          <t>['ahsanullah universi science technology']</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>['https://ror.org/049nvyb15']</t>
+          <t>['https://ror.org/04wfbp123']</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>J Periañez, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
+          <t>Institut für Immunologie der Joh. Gutenberg Universität, Mainz, FRG.</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>['hospital universi fundacion jimenez diaz']</t>
+          <t>['translationale onkologie an der universi der johannes gutenberg universi mainz']</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>['https://ror.org/049nvyb15']</t>
+          <t>['https://ror.org/04sz26p89']</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>E Crespo Vallejo, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, 28040, Spain</t>
+          <t>Osaka University</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>['hospital universi fundacion jimenez diaz']</t>
+          <t>['osaka universi']</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>['https://ror.org/049nvyb15']</t>
+          <t>['https://ror.org/035t8zc32']</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A Hermosin , Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
+          <t>Department of Microbiology, University of Texas Health Science Center, San Antonio 78284.</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>['hospital universi fundacion jimenez diaz']</t>
+          <t>['texas health science universi']</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>['https://ror.org/049nvyb15']</t>
+          <t>['https://ror.org/041621784']</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>M Gargallo, Endocrinology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
+          <t>Rockefeller University , New York, New York 10021</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>['hospital universi fundacion jimenez diaz']</t>
+          <t>['rockefeller universi']</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>['https://ror.org/049nvyb15']</t>
+          <t>['https://ror.org/0420db125']</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>E Santos, Interventional Radiology, Memorial Sloan Kettering Cancer Center, New York, United States</t>
+          <t>Chuvash State University</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>['memorial sloan kettering cancer center']</t>
+          <t>['chuvash state universi']</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>['https://ror.org/02yrq0923']</t>
+          <t>['https://ror.org/01jmd7f74']</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A Villalba, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
+          <t>*Department of Paediatric Gastroenterology, St. Bartholomew’s and The Royal London School of Medicine and Dentistry, St. Bartholomew’s Hospital, London, United Kingdom; and</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>['hospital universi fundacion jimenez diaz']</t>
+          <t>['st bartholomews hospital']</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>['https://ror.org/049nvyb15']</t>
+          <t>['https://ror.org/00nh9x179']</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>E Daguer, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
+          <t>Samara State University of Economics (SSEU)</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>['hospital universi fundacion jimenez diaz']</t>
+          <t>['samara state universi economics']</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>['https://ror.org/049nvyb15']</t>
+          <t>['https://ror.org/02wsba348']</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>J Flores, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
+          <t>Universidad Técnica de Machala, Programa de maestría en Medicina Veterinaria, mención Clínica y Cirugía de Pequeñas Especies. Machala, El Oro, Ecuador - RenatoVetDerm. Davie, Florida, Estados Unidos de América</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>['hospital universi fundacion jimenez diaz']</t>
+          <t>['universi tecnica machala']</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>['https://ror.org/049nvyb15']</t>
+          <t>['https://ror.org/036zk8k10']</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Post-doctoral fellow at the Mandel-Scholion Research Center, Hebrew University of Jerusalem Jerusalem Israel</t>
+          <t>Universidad Científica del Sur. Lima, Perú</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>['hebrew universi jerusalem']</t>
+          <t>['universi cientifica del sur']</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>['https://ror.org/03qxff017']</t>
+          <t>['https://ror.org/04xr5we72']</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Junior Fellow at the Society of Fellows, Harvard University Cambridge, MA USA</t>
+          <t>Peng Cheng Laboratory,Shenzhen,China</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>['harvard universi']</t>
+          <t>['peng cheng laboratory']</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>['https://ror.org/03vek6s52']</t>
+          <t>['https://ror.org/03qdqbt06']</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Department of Gynecology, Women’s Hospital, School of Medicine, Zhejiang University, Hangzhou 310006, China</t>
+          <t>Department of Bacteriology and Immunity, Leland Stanford Jr. University From the</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>['zhejiang universi']</t>
+          <t>['stanford universi']</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>['https://ror.org/00a2xv884']</t>
+          <t>['https://ror.org/00f54p054']</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Director, Centre for Local and Regional Governance (CLRG) , University College Cork , Ireland</t>
+          <t>Department of Plant Biology, University of Illinois, Urbana 61801, USA.</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>['universi college cork']</t>
+          <t>['universi illinois']</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>['https://ror.org/03265fv13']</t>
+          <t>['https://ror.org/05e94g991']</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Lecturer, Department of Government and Politics , University College Cork , Ireland</t>
+          <t>From the Department of Cardiovascular Medicine, School of Medical Sciences (R.N., K.E., Y.M., S.H., M.T., H.T., A.T.), and Department of Biophysics, Faculty of Pharmaceutical Sciences (H.U.), Kyushu University, Fukuoka, Japan.</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>['universi college cork']</t>
+          <t>['kyushu universi']</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>['https://ror.org/03265fv13']</t>
+          <t>['https://ror.org/00p4k0j84']</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>PhD candidate, Department of Government and Politics , University College Cork , Ireland</t>
+          <t>Graduate School of Social Sciences, Waseda University, Japan</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>['universi college cork']</t>
+          <t>['waseda universi']</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>['https://ror.org/03265fv13']</t>
+          <t>['https://ror.org/00ntfnx83']</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>School of Sport, Exercise and Health Sciences, Loughborough University, Loughborough, UK</t>
+          <t>Faculty of Social Sciences, Waseda University, Japan.</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>['loughborough universi']</t>
+          <t>['waseda universi']</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>['https://ror.org/04vg4w365']</t>
+          <t>['https://ror.org/00ntfnx83']</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Laboratory of Plant Molecular Biology, Rockefeller University, New York, New York 10021-6399.</t>
+          <t>A Hermosin , Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>['rockefeller universi']</t>
+          <t>['hospital universi fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>['https://ror.org/0420db125']</t>
+          <t>['https://ror.org/049nvyb15']</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>National Heart Centre, Singapore</t>
+          <t>A Villalba, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>['national heart centre singapore']</t>
+          <t>['hospital universi fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>['https://ror.org/04f8k9513']</t>
+          <t>['https://ror.org/049nvyb15']</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>National University Hospital, Singapore</t>
+          <t>E Crespo Vallejo, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, 28040, Spain</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>['national universi hospital']</t>
+          <t>['hospital universi fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>['https://ror.org/04fp9fm22']</t>
+          <t>['https://ror.org/049nvyb15']</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Department of Biology, Osborn Memorial Laboratories, Yale University, New Haven, Connecticut 06511.</t>
+          <t>J Amorim, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>['yale universi']</t>
+          <t>['hospital universi fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>['https://ror.org/03v76x132']</t>
+          <t>['https://ror.org/049nvyb15']</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Higher Colleges of Technology,Faculty of Engineering Technology and Science,Dubai,United Arab Emirates</t>
+          <t>J Flores, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>['higher colleges technology']</t>
+          <t>['hospital universi fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>['https://ror.org/00qmy9z88']</t>
+          <t>['https://ror.org/049nvyb15']</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Lebanese University,Faculty of Engineering,Tripoli,Lebanon</t>
+          <t>E Santos, Interventional Radiology, Memorial Sloan Kettering Cancer Center, New York, United States</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>['lebanese universi']</t>
+          <t>['memorial sloan kettering cancer center']</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>['https://ror.org/05x6qnc69']</t>
+          <t>['https://ror.org/02yrq0923']</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Associate Professor, Dept. of Energy Systems Engineering, Technology Faculty, Karabuk Univ., Iron and Steel Campus, Karabuk 78050, Turkey (corresponding author). ORCID: .</t>
+          <t>M Gargallo, Endocrinology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>['karabuk universi']</t>
+          <t>['hospital universi fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>['https://ror.org/04wy7gp54']</t>
+          <t>['https://ror.org/049nvyb15']</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Dept. of Energy Systems Engineering, Technology Faculty, Karabuk Univ., Iron and Steel Campus, Karabuk 78050, Turkey. ORCID: .</t>
+          <t>J Periañez, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>['karabuk universi']</t>
+          <t>['hospital universi fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>['https://ror.org/04wy7gp54']</t>
+          <t>['https://ror.org/049nvyb15']</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Department of Biology and the Center for Cancer Research, Massachusetts Institute of Technology From the , Cambridge, Massachusetts 02139</t>
+          <t>E Daguer, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>['massachusetts institute technology']</t>
+          <t>['hospital universi fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>['https://ror.org/042nb2s44']</t>
+          <t>['https://ror.org/049nvyb15']</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Artificial Intelligence School, Sungkyunkwan University,Suwon,South Korea</t>
+          <t>Junior Fellow at the Society of Fellows, Harvard University Cambridge, MA USA</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>['sungkyunkwan universi']</t>
+          <t>['universi cambridge']</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>['https://ror.org/04q78tk20']</t>
+          <t>['https://ror.org/013meh722']</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Tokyo Institute of Technology</t>
+          <t>Post-doctoral fellow at the Mandel-Scholion Research Center, Hebrew University of Jerusalem Jerusalem Israel</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>['tokyo institute technology']</t>
+          <t>['hebrew universi jerusalem']</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>['https://ror.org/0112mx960']</t>
+          <t>['https://ror.org/03qxff017']</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Tohoku University</t>
+          <t>Department of Gynecology, Women’s Hospital, School of Medicine, Zhejiang University, Hangzhou 310006, China</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>['tohoku universi']</t>
+          <t>['womens hospital', 'zhejiang universi']</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>['https://ror.org/01dq60k83']</t>
+          <t>['https://ror.org/00raa0r66', 'https://ror.org/00a2xv884']</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Department of Mathematics, Shaoxing University, Shaoxing 312000, P. R. China</t>
+          <t>Lecturer, Department of Government and Politics , University College Cork , Ireland</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>['shaoxing universi']</t>
+          <t>['universi college cork']</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>['https://ror.org/0435tej63']</t>
+          <t>['https://ror.org/03265fv13']</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Department of Microbiology, Washington University School of Medicine From the , St. Louis, Missouri 63110</t>
+          <t>PhD candidate, Department of Government and Politics , University College Cork , Ireland</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>['universi washington']</t>
+          <t>['universi college cork']</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>['https://ror.org/00cvxb145']</t>
+          <t>['https://ror.org/03265fv13']</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Department of Radiology, Loyola University Medical Center, Maywood, Illinois, United States</t>
+          <t>Director, Centre for Local and Regional Governance (CLRG) , University College Cork , Ireland</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>['loyola universi medical center']</t>
+          <t>['universi college cork']</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>['https://ror.org/05xcyt367']</t>
+          <t>['https://ror.org/03265fv13']</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Department of Medical Oncology, Loyola University Medical Center, Maywood, Illinois, United States</t>
+          <t>School of Sport, Exercise and Health Sciences, Loughborough University, Loughborough, UK</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>['loyola universi medical center']</t>
+          <t>['loughborough universi']</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>['https://ror.org/05xcyt367']</t>
+          <t>['https://ror.org/04vg4w365']</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Departments of Pathology, Dermatology, and Medicine, Tufts University School of Medicine From the , Boston, Massachusetts 02111</t>
+          <t>Laboratory of Plant Molecular Biology, Rockefeller University, New York, New York 10021-6399.</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>['tufts universi']</t>
+          <t>['rockefeller universi']</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>['https://ror.org/05wvpxv85']</t>
+          <t>['https://ror.org/0420db125']</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Kahramanmaraş Sütçü İmam Üniversitesi İlahiyat Fakültesi</t>
+          <t>National University Hospital, Singapore</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>['kahramanmaras sutcu imam universi']</t>
+          <t>['national universi hospital']</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>['https://ror.org/03gn5cg19']</t>
+          <t>['https://ror.org/04fp9fm22']</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>KAHRAMANMARAŞ SÜTÇÜ İMAM ÜNİVERSİTESİ</t>
+          <t>National Heart Centre, Singapore</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>['kahramanmaras sutcu imam universi']</t>
+          <t>['national heart centre singapore']</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>['https://ror.org/03gn5cg19']</t>
+          <t>['https://ror.org/04f8k9513']</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>School of Microelectronics, Northwestern Polytechnical University,Xi&amp;#x0027;an,China</t>
+          <t>Department of Biology, Osborn Memorial Laboratories, Yale University, New Haven, Connecticut 06511.</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>['northwestern polytechnical universi']</t>
+          <t>['yale universi']</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>['https://ror.org/01y0j0j86']</t>
+          <t>['https://ror.org/03v76x132']</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Duke Clinical Research Institute, Duke University Medical Center, Durham, NC</t>
+          <t>Higher Colleges of Technology,Faculty of Engineering Technology and Science,Dubai,United Arab Emirates</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>['duke universi medical center']</t>
+          <t>['higher colleges technology']</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>['https://ror.org/03njmea73']</t>
+          <t>['https://ror.org/00qmy9z88']</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Department of Pediatrics, University of Tennessee, Memphis 38163.</t>
+          <t>Lebanese University,Faculty of Engineering,Tripoli,Lebanon</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>['universi tennessee']</t>
+          <t>['lebanese universi']</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>['https://ror.org/020f3ap87']</t>
+          <t>['https://ror.org/05x6qnc69']</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Department of Pathology and Laboratory Medicine, University of Pennsylvania School of Medicine, Philadelphia 19104-6082.</t>
+          <t>Associate Professor, Dept. of Energy Systems Engineering, Technology Faculty, Karabuk Univ., Iron and Steel Campus, Karabuk 78050, Turkey (corresponding author). ORCID: .</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>['universi pennsylvania']</t>
+          <t>['karabuk universi']</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>['https://ror.org/00b30xv10']</t>
+          <t>['https://ror.org/04wy7gp54']</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Ehime University</t>
+          <t>Dept. of Energy Systems Engineering, Technology Faculty, Karabuk Univ., Iron and Steel Campus, Karabuk 78050, Turkey. ORCID: .</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>['ehime universi']</t>
+          <t>['karabuk universi']</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>['https://ror.org/017hkng22']</t>
+          <t>['https://ror.org/04wy7gp54']</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Qassim University</t>
+          <t>Department of Biology and the Center for Cancer Research, Massachusetts Institute of Technology From the , Cambridge, Massachusetts 02139</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>['qassim universi']</t>
+          <t>['massachusetts institute technology']</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>['https://ror.org/01wsfe280']</t>
+          <t>['https://ror.org/042nb2s44']</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Department of Physics, Pukyong National University</t>
+          <t>Artificial Intelligence School, Sungkyunkwan University,Suwon,South Korea</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>['pukyong national universi']</t>
+          <t>['sungkyunkwan universi']</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>['https://ror.org/0433kqc49']</t>
+          <t>['https://ror.org/04q78tk20']</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Department of Electrical Engineering, Tongmyong University</t>
+          <t>Tokyo Institute of Technology</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>['tongmyong universi']</t>
+          <t>['tokyo institute technology']</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>['https://ror.org/01asa8g02']</t>
+          <t>['https://ror.org/0112mx960']</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Eastern minnesota university</t>
+          <t>Tohoku University</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>['eastern universi']</t>
+          <t>['tohoku universi']</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>['https://ror.org/05e2ncr14']</t>
+          <t>['https://ror.org/01dq60k83']</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Amur State University</t>
+          <t>Department of Mathematics, Shaoxing University, Shaoxing 312000, P. R. China</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>['amur state universi']</t>
+          <t>['shaoxing universi']</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>['https://ror.org/03fws8b96']</t>
+          <t>['https://ror.org/0435tej63']</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>National Engineering Laboratory for Tree Breeding, College of Biological Sciences and Technology, Beijing Forestry University , No. 35, Qinghua East Road, Beijing 100083, P. R. China</t>
+          <t>Department of Microbiology, Washington University School of Medicine From the , St. Louis, Missouri 63110</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>['beijing forestry universi']</t>
+          <t>['universi washington']</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>['https://ror.org/04xv2pc41']</t>
+          <t>['https://ror.org/00cvxb145']</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Department of Forest and Conservation Sciences, Faculty of Forestry, Forest Sciences Centre, University of British Columbia , Vancouver, BC V6T 1Z4 , Canada</t>
+          <t>Department of Medical Oncology, Loyola University Medical Center, Maywood, Illinois, United States</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>['universi british columbia']</t>
+          <t>['loyola universi medical center']</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>['https://ror.org/03rmrcq20']</t>
+          <t>['https://ror.org/05xcyt367']</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Key Laboratory of Genetics and Breeding in Forest Trees and Ornamental Plants, Ministry of Education, College of Biological Sciences and Technology, Beijing Forestry University , No. 35, Qinghua East Road, Beijing 100083, P. R. China</t>
+          <t>Department of Radiology, Loyola University Medical Center, Maywood, Illinois, United States</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>['beijing forestry universi']</t>
+          <t>['loyola universi medical center']</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>['https://ror.org/04xv2pc41']</t>
+          <t>['https://ror.org/05xcyt367']</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Veer Narmad South Gujarat University, India</t>
+          <t>Departments of Pathology, Dermatology, and Medicine, Tufts University School of Medicine From the , Boston, Massachusetts 02111</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>['veer narmad south gujarat universi']</t>
+          <t>['tufts universi']</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>['https://ror.org/04frnz493']</t>
+          <t>['https://ror.org/05wvpxv85']</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>The Institute for Animal Health, Compton, Near Newbury, United Kingdom. Chris.Howard@BBSRC.AC.UK</t>
+          <t>Kahramanmaraş Sütçü İmam Üniversitesi İlahiyat Fakültesi</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>['institute animal health']</t>
+          <t>['kahramanmaras sutcu imam universi']</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>['https://ror.org/04xv01a59']</t>
+          <t>['https://ror.org/03gn5cg19']</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>*Division of Molecular Immunology, La Jolla Institute for Allergy and Immunology, San Diego, CA 92121;</t>
+          <t>KAHRAMANMARAŞ SÜTÇÜ İMAM ÜNİVERSİTESİ</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>['la jolla institute allergy immunology']</t>
+          <t>['kahramanmaras sutcu imam universi']</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>['https://ror.org/05vkpd318']</t>
+          <t>['https://ror.org/03gn5cg19']</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>§Institute of Biochemistry, University of Lausanne, Epalinges, Switzerland</t>
+          <t>School of Microelectronics, Northwestern Polytechnical University,Xi&amp;#x0027;an,China</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>['universi lausanne']</t>
+          <t>['northwestern polytechnical universi']</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>['https://ror.org/019whta54']</t>
+          <t>['https://ror.org/01y0j0j86']</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>‡Department of Medicine, University of California at San Diego, La Jolla CA 92093; and</t>
+          <t>Duke Clinical Research Institute, Duke University Medical Center, Durham, NC</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>['universi california san diego']</t>
+          <t>['duke universi medical center']</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>['https://ror.org/0168r3w48']</t>
+          <t>['https://ror.org/04bct7p84']</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
+          <t>Department of Pediatrics, University of Tennessee, Memphis 38163.</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>['universi tennessee']</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>['https://ror.org/020f3ap87']</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Department of Pathology and Laboratory Medicine, University of Pennsylvania School of Medicine, Philadelphia 19104-6082.</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>['universi pennsylvania']</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>['https://ror.org/00b30xv10']</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Ehime University</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>['ehime universi']</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>['https://ror.org/017hkng22']</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qassim University</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>['qassim universi']</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>['https://ror.org/01wsfe280']</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Department of Physics, Pukyong National University</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>['pukyong national universi']</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>['https://ror.org/0433kqc49']</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Department of Electrical Engineering, Tongmyong University</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>['tongmyong universi']</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>['https://ror.org/01asa8g02']</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Eastern minnesota university</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>['eastern universi']</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>['https://ror.org/05e2ncr14']</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Amur State University</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>['amur state universi']</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>['https://ror.org/03fws8b96']</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>National Engineering Laboratory for Tree Breeding, College of Biological Sciences and Technology, Beijing Forestry University , No. 35, Qinghua East Road, Beijing 100083, P. R. China</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>['beijing forestry universi']</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>['https://ror.org/04xv2pc41']</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Department of Forest and Conservation Sciences, Faculty of Forestry, Forest Sciences Centre, University of British Columbia , Vancouver, BC V6T 1Z4 , Canada</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>['universi british columbia']</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>['https://ror.org/03rmrcq20']</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Key Laboratory of Genetics and Breeding in Forest Trees and Ornamental Plants, Ministry of Education, College of Biological Sciences and Technology, Beijing Forestry University , No. 35, Qinghua East Road, Beijing 100083, P. R. China</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>['beijing forestry universi']</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>['https://ror.org/04xv2pc41']</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Veer Narmad South Gujarat University, India</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>['veer narmad south gujarat universi']</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>['https://ror.org/04frnz493']</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>The Institute for Animal Health, Compton, Near Newbury, United Kingdom. Chris.Howard@BBSRC.AC.UK</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>['institute animal health']</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>['https://ror.org/04xv01a59']</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>*Division of Molecular Immunology, La Jolla Institute for Allergy and Immunology, San Diego, CA 92121;</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>['la jolla institute allergy  immunology']</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>['https://ror.org/05vkpd318']</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>‡Department of Medicine, University of California at San Diego, La Jolla CA 92093; and</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>['universi california san diego']</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>['https://ror.org/0168r3w48']</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>§Institute of Biochemistry, University of Lausanne, Epalinges, Switzerland</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>['universi lausanne']</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>['https://ror.org/019whta54']</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
           <t>Department of Molecular Pharmacology and Biological Chemistry, Northwestern University, 303 East Chicago Avenue, Chicago, Illinois 60611</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr">
+      <c r="B336" t="inlineStr">
         <is>
           <t>['northwestern universi']</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>['https://ror.org/00m6w7z96']</t>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>['https://ror.org/000e0be47']</t>
         </is>
       </c>
     </row>
